--- a/PSM_IntegrationTestCases.xlsx
+++ b/PSM_IntegrationTestCases.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2240" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2258" uniqueCount="733">
   <si>
     <t>Test case id</t>
   </si>
@@ -3483,12 +3483,6 @@
 Màn hình Login chưa Việt hóa</t>
   </si>
   <si>
-    <t>User Manager form : 
-Thông báo số lượng User tìm thấy sai và chưa VH
-Nút Edit chưa VH
-Edit user thành công không có thông báo</t>
-  </si>
-  <si>
     <t>Studio Manager form :
 Thông báo tìm thấy Studio sai và chưa VH
 Nút Edit chưa VH
@@ -3911,12 +3905,17 @@
   <si>
     <t>5. Contract Page</t>
   </si>
+  <si>
+    <t>User Manager form : 
+Nút Edit chưa VH
+Edit user thành công không có thông báo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4001,14 +4000,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="163"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -4187,7 +4178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4287,7 +4278,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4368,6 +4358,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4665,8 +4661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView topLeftCell="A100" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7354,8 +7350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J194"/>
   <sheetViews>
-    <sheetView topLeftCell="A145" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G145" sqref="G145"/>
+    <sheetView topLeftCell="A190" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A179" sqref="A179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7883,7 +7879,7 @@
       <c r="I22" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J22" s="49"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" ht="45.75" thickBot="1">
       <c r="A23" s="3">
@@ -7910,33 +7906,33 @@
       <c r="I23" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J23" s="49"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="47"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="41"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="12"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="49"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A25" s="47"/>
-      <c r="B25" s="50" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="49" t="s">
         <v>539</v>
       </c>
-      <c r="C25" s="40"/>
-      <c r="D25" s="41"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="12"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="49"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" ht="26.25" thickBot="1">
       <c r="A26" s="1" t="s">
@@ -7966,7 +7962,7 @@
       <c r="I26" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J26" s="49"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="214.5" thickBot="1">
       <c r="A27" s="3">
@@ -7995,7 +7991,7 @@
       <c r="I27" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:10" ht="214.5" thickBot="1">
       <c r="A28" s="3">
@@ -8024,7 +8020,7 @@
       <c r="I28" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J28" s="49"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:10" ht="214.5" thickBot="1">
       <c r="A29" s="3">
@@ -8053,7 +8049,7 @@
       <c r="I29" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J29" s="49"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="214.5" thickBot="1">
       <c r="A30" s="3">
@@ -8082,7 +8078,7 @@
       <c r="I30" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J30" s="49"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="214.5" thickBot="1">
       <c r="A31" s="3">
@@ -8111,7 +8107,7 @@
       <c r="I31" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J31" s="49"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="214.5" thickBot="1">
       <c r="A32" s="3">
@@ -8140,7 +8136,7 @@
       <c r="I32" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J32" s="49"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" spans="1:10" ht="214.5" thickBot="1">
       <c r="A33" s="3">
@@ -8169,7 +8165,7 @@
       <c r="I33" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J33" s="49"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" ht="214.5" thickBot="1">
       <c r="A34" s="3">
@@ -8198,7 +8194,7 @@
       <c r="I34" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J34" s="49"/>
+      <c r="J34" s="48"/>
     </row>
     <row r="35" spans="1:10" ht="214.5" thickBot="1">
       <c r="A35" s="3">
@@ -8227,7 +8223,7 @@
       <c r="I35" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J35" s="49"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" ht="214.5" thickBot="1">
       <c r="A36" s="3">
@@ -8256,7 +8252,7 @@
       <c r="I36" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J36" s="49"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" ht="214.5" thickBot="1">
       <c r="A37" s="3">
@@ -8285,7 +8281,7 @@
       <c r="I37" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J37" s="49"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" spans="1:10" ht="214.5" thickBot="1">
       <c r="A38" s="3">
@@ -8314,7 +8310,7 @@
       <c r="I38" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J38" s="49"/>
+      <c r="J38" s="48"/>
     </row>
     <row r="39" spans="1:10" ht="214.5" thickBot="1">
       <c r="A39" s="3">
@@ -8343,7 +8339,7 @@
       <c r="I39" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J39" s="49"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" ht="214.5" thickBot="1">
       <c r="A40" s="3">
@@ -8372,7 +8368,7 @@
       <c r="I40" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J40" s="49"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10" ht="214.5" thickBot="1">
       <c r="A41" s="3">
@@ -8401,7 +8397,7 @@
       <c r="I41" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J41" s="49"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="1:10" ht="214.5" thickBot="1">
       <c r="A42" s="3">
@@ -8430,7 +8426,7 @@
       <c r="I42" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J42" s="49"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" ht="214.5" thickBot="1">
       <c r="A43" s="3">
@@ -8459,7 +8455,7 @@
       <c r="I43" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J43" s="49"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" ht="214.5" thickBot="1">
       <c r="A44" s="3">
@@ -8488,7 +8484,7 @@
       <c r="I44" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J44" s="49"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" ht="214.5" thickBot="1">
       <c r="A45" s="3">
@@ -8517,7 +8513,7 @@
       <c r="I45" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J45" s="49"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" ht="214.5" thickBot="1">
       <c r="A46" s="3">
@@ -8546,7 +8542,7 @@
       <c r="I46" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J46" s="49"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" ht="214.5" thickBot="1">
       <c r="A47" s="3">
@@ -8575,7 +8571,7 @@
       <c r="I47" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J47" s="49"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="1:10" ht="214.5" thickBot="1">
       <c r="A48" s="3">
@@ -8604,19 +8600,19 @@
       <c r="I48" s="35" t="s">
         <v>423</v>
       </c>
-      <c r="J48" s="49"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="47"/>
-      <c r="B49" s="47"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="41"/>
+      <c r="A49" s="46"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="40"/>
       <c r="E49" s="12"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="49"/>
+      <c r="F49" s="47"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="40"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" spans="1:10" ht="18.75" thickBot="1">
       <c r="B50" s="32" t="s">
@@ -9373,10 +9369,10 @@
       </c>
     </row>
     <row r="78" spans="1:9">
-      <c r="A78" s="45"/>
+      <c r="A78" s="44"/>
     </row>
     <row r="79" spans="1:9" ht="47.25" thickBot="1">
-      <c r="A79" s="45"/>
+      <c r="A79" s="44"/>
       <c r="B79" s="34" t="s">
         <v>559</v>
       </c>
@@ -10151,7 +10147,7 @@
       <c r="H107" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="I107" s="51" t="s">
+      <c r="I107" s="50" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10177,7 +10173,7 @@
       <c r="H108" s="27" t="s">
         <v>264</v>
       </c>
-      <c r="I108" s="51" t="s">
+      <c r="I108" s="50" t="s">
         <v>116</v>
       </c>
     </row>
@@ -12054,18 +12050,18 @@
       </c>
     </row>
     <row r="176" spans="1:9">
-      <c r="A176" s="45"/>
-      <c r="B176" s="40"/>
-      <c r="C176" s="41"/>
-      <c r="D176" s="42"/>
-      <c r="E176" s="40"/>
-      <c r="F176" s="40"/>
-      <c r="G176" s="43"/>
-      <c r="H176" s="41"/>
-      <c r="I176" s="44"/>
+      <c r="A176" s="44"/>
+      <c r="B176" s="39"/>
+      <c r="C176" s="40"/>
+      <c r="D176" s="41"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="39"/>
+      <c r="G176" s="42"/>
+      <c r="H176" s="40"/>
+      <c r="I176" s="43"/>
     </row>
     <row r="177" spans="1:9" ht="47.25" thickBot="1">
-      <c r="A177" s="45"/>
+      <c r="A177" s="44"/>
       <c r="B177" s="34" t="s">
         <v>560</v>
       </c>
@@ -12336,7 +12332,7 @@
         <v>277</v>
       </c>
       <c r="G187" s="15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H187" s="27" t="s">
         <v>264</v>
@@ -12463,7 +12459,7 @@
         <v>173</v>
       </c>
       <c r="B192" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C192" s="5" t="s">
         <v>10</v>
@@ -12471,7 +12467,7 @@
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
       <c r="F192" s="16" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G192" s="16" t="s">
         <v>279</v>
@@ -12489,7 +12485,7 @@
         <v>174</v>
       </c>
       <c r="B193" s="16" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>10</v>
@@ -12497,10 +12493,10 @@
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
       <c r="F193" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="G193" s="16" t="s">
         <v>643</v>
-      </c>
-      <c r="G193" s="16" t="s">
-        <v>644</v>
       </c>
       <c r="H193" s="27" t="s">
         <v>264</v>
@@ -12515,7 +12511,7 @@
         <v>175</v>
       </c>
       <c r="B194" s="16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>10</v>
@@ -12523,10 +12519,10 @@
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
       <c r="F194" s="16" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G194" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H194" s="27" t="s">
         <v>264</v>
@@ -12543,10 +12539,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12567,8 +12563,8 @@
       </c>
       <c r="C1" s="38"/>
     </row>
-    <row r="2" spans="1:9" ht="19.5" thickBot="1">
-      <c r="B2" s="39" t="s">
+    <row r="2" spans="1:9" ht="24" thickBot="1">
+      <c r="B2" s="13" t="s">
         <v>287</v>
       </c>
       <c r="C2" s="38"/>
@@ -12843,7 +12839,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -12851,10 +12847,10 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="H13" s="27" t="s">
         <v>264</v>
@@ -12865,11 +12861,11 @@
     </row>
     <row r="14" spans="1:9" ht="26.25" thickBot="1">
       <c r="A14" s="3">
-        <f t="shared" ref="A14:A19" si="2">A13+1</f>
+        <f t="shared" ref="A14:A18" si="2">A13+1</f>
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -12877,10 +12873,10 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>650</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>651</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>264</v>
@@ -12895,7 +12891,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -12903,10 +12899,10 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>654</v>
       </c>
       <c r="H15" s="27" t="s">
         <v>264</v>
@@ -12921,7 +12917,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -12929,10 +12925,10 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>657</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>264</v>
@@ -12947,7 +12943,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -12955,10 +12951,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>660</v>
       </c>
       <c r="H17" s="27" t="s">
         <v>264</v>
@@ -12973,7 +12969,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -12981,10 +12977,10 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>662</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>663</v>
       </c>
       <c r="H18" s="27" t="s">
         <v>264</v>
@@ -12993,73 +12989,73 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A19" s="3">
-        <f t="shared" si="2"/>
+    <row r="20" spans="1:9" ht="47.25" thickBot="1">
+      <c r="B20" s="66" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A22" s="3">
+        <f>A18+1</f>
         <v>16</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>661</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7" t="s">
-        <v>662</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>663</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="I19" s="28" t="s">
+      <c r="B22" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="H22" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I22" s="28" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B21" s="57" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="26.25" thickBot="1">
       <c r="A23" s="3">
-        <f>A19+1</f>
+        <f t="shared" ref="A23:A26" si="3">A22+1</f>
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
@@ -13067,10 +13063,10 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>264</v>
@@ -13079,125 +13075,125 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B25" t="s">
-        <v>668</v>
+    <row r="24" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A24" s="3">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I24" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A25" s="3">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I25" s="28" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A27" s="3">
-        <f>A23+1</f>
-        <v>18</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>671</v>
-      </c>
-      <c r="H27" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="I27" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A28" s="3">
-        <f t="shared" ref="A28:A34" si="3">A27+1</f>
-        <v>19</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7" t="s">
-        <v>673</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>674</v>
-      </c>
-      <c r="H28" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="I28" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A29" s="3">
+      <c r="A26" s="3">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7" t="s">
-        <v>676</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>677</v>
-      </c>
-      <c r="H29" s="27" t="s">
-        <v>264</v>
-      </c>
-      <c r="I29" s="28" t="s">
+      <c r="B26" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="H26" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I26" s="28" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="24" thickBot="1">
+      <c r="B28" s="13" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="26.25" thickBot="1">
       <c r="A30" s="3">
-        <f t="shared" si="3"/>
-        <v>21</v>
+        <f>A22+1</f>
+        <v>17</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>10</v>
@@ -13205,10 +13201,10 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="H30" s="27" t="s">
         <v>264</v>
@@ -13219,11 +13215,11 @@
     </row>
     <row r="31" spans="1:9" ht="26.25" thickBot="1">
       <c r="A31" s="3">
-        <f t="shared" si="3"/>
-        <v>22</v>
+        <f t="shared" ref="A31:A37" si="4">A30+1</f>
+        <v>18</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>10</v>
@@ -13231,10 +13227,10 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="H31" s="27" t="s">
         <v>264</v>
@@ -13244,49 +13240,49 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A32" s="33">
-        <f t="shared" si="3"/>
-        <v>23</v>
-      </c>
-      <c r="B32" s="59" t="s">
-        <v>681</v>
-      </c>
-      <c r="C32" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59" t="s">
-        <v>682</v>
-      </c>
-      <c r="G32" s="59" t="s">
-        <v>683</v>
-      </c>
-      <c r="H32" s="60" t="s">
-        <v>264</v>
-      </c>
-      <c r="I32" s="61" t="s">
+      <c r="A32" s="3">
+        <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="H32" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I32" s="28" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="90" thickBot="1">
-      <c r="A33" s="62">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>684</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D33" s="64"/>
-      <c r="E33" s="64"/>
-      <c r="F33" s="64" t="s">
-        <v>685</v>
-      </c>
-      <c r="G33" s="64" t="s">
-        <v>686</v>
+    <row r="33" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A33" s="3">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>679</v>
       </c>
       <c r="H33" s="27" t="s">
         <v>264</v>
@@ -13295,24 +13291,24 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="39" thickBot="1">
-      <c r="A34" s="62">
-        <f t="shared" si="3"/>
-        <v>25</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>687</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
-      <c r="F34" s="64" t="s">
-        <v>688</v>
-      </c>
-      <c r="G34" s="64" t="s">
-        <v>689</v>
+    <row r="34" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A34" s="3">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>682</v>
       </c>
       <c r="H34" s="27" t="s">
         <v>264</v>
@@ -13320,486 +13316,565 @@
       <c r="I34" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="J34" s="12"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="47"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="47"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="12"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A36" s="47"/>
-      <c r="B36" s="40" t="s">
-        <v>693</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-    </row>
-    <row r="37" spans="1:10" ht="26.25" thickBot="1">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="35" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A35" s="33">
+        <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="B35" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="H35" s="59" t="s">
+        <v>264</v>
+      </c>
+      <c r="I35" s="60" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="90" thickBot="1">
+      <c r="A36" s="61">
+        <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>683</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="63" t="s">
+        <v>684</v>
+      </c>
+      <c r="G36" s="63" t="s">
+        <v>685</v>
+      </c>
+      <c r="H36" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I36" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="39" thickBot="1">
+      <c r="A37" s="61">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="C37" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="63" t="s">
+        <v>687</v>
+      </c>
+      <c r="G37" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="H37" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="I37" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="46"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="1:10" ht="24" thickBot="1">
+      <c r="A39" s="46"/>
+      <c r="B39" s="67" t="s">
+        <v>692</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+    </row>
+    <row r="40" spans="1:10" ht="26.25" thickBot="1">
+      <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G37" s="6" t="s">
+      <c r="G40" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H40" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="6" t="s">
+      <c r="I40" s="6" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="204.75" thickBot="1">
-      <c r="A38" s="3">
-        <f>A34+1</f>
-        <v>26</v>
-      </c>
-      <c r="B38" s="22" t="s">
-        <v>690</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>691</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>689</v>
-      </c>
-      <c r="H38" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I38" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="204.75" thickBot="1">
-      <c r="A39" s="3">
-        <f>A38+1</f>
-        <v>27</v>
-      </c>
-      <c r="B39" s="22" t="s">
-        <v>694</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7" t="s">
-        <v>695</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H39" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I39" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="204.75" thickBot="1">
-      <c r="A40" s="3">
-        <f t="shared" ref="A40:A42" si="4">A39+1</f>
-        <v>28</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>697</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7" t="s">
-        <v>698</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H40" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I40" s="65" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="204.75" thickBot="1">
       <c r="A41" s="3">
-        <f t="shared" si="4"/>
-        <v>29</v>
+        <f>A37+1</f>
+        <v>25</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>702</v>
+        <v>53</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H41" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I41" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="217.5" thickBot="1">
+        <v>690</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="H41" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I41" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="204.75" thickBot="1">
       <c r="A42" s="3">
-        <f t="shared" si="4"/>
-        <v>30</v>
+        <f>A41+1</f>
+        <v>26</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="G42" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="H42" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I42" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="204.75" thickBot="1">
+      <c r="A43" s="3">
+        <f t="shared" ref="A43:A45" si="5">A42+1</f>
+        <v>27</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>696</v>
-      </c>
-      <c r="H42" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I42" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="186" thickBot="1">
-      <c r="A43" s="3">
-        <f t="shared" ref="A43" si="5">A42+1</f>
-        <v>31</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>707</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="H43" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I43" s="65" t="s">
-        <v>692</v>
+        <v>695</v>
+      </c>
+      <c r="H43" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I43" s="64" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="204.75" thickBot="1">
       <c r="A44" s="3">
-        <f>A42+1</f>
-        <v>31</v>
+        <f t="shared" si="5"/>
+        <v>28</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>717</v>
+        <v>700</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
-        <v>718</v>
+        <v>701</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>722</v>
+        <v>702</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H44" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="204.75" thickBot="1">
+        <v>695</v>
+      </c>
+      <c r="H44" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I44" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="217.5" thickBot="1">
       <c r="A45" s="3">
-        <f>A43+1</f>
-        <v>32</v>
+        <f t="shared" si="5"/>
+        <v>29</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H45" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I45" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="204.75" thickBot="1">
+        <v>695</v>
+      </c>
+      <c r="H45" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I45" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="186" thickBot="1">
       <c r="A46" s="3">
         <f t="shared" ref="A46" si="6">A45+1</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>724</v>
+        <v>708</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H46" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I46" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="217.5" thickBot="1">
+        <v>709</v>
+      </c>
+      <c r="H46" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="204.75" thickBot="1">
       <c r="A47" s="3">
-        <f t="shared" ref="A47" si="7">A46+1</f>
-        <v>34</v>
+        <f>A45+1</f>
+        <v>30</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>721</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H47" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I47" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="217.5" thickBot="1">
+        <v>695</v>
+      </c>
+      <c r="H47" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I47" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="204.75" thickBot="1">
       <c r="A48" s="3">
-        <f t="shared" ref="A48" si="8">A47+1</f>
-        <v>35</v>
+        <f>A46+1</f>
+        <v>31</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H48" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I48" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="230.25" thickBot="1">
+        <v>695</v>
+      </c>
+      <c r="H48" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I48" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="204.75" thickBot="1">
       <c r="A49" s="3">
-        <f t="shared" ref="A49" si="9">A48+1</f>
-        <v>36</v>
+        <f t="shared" ref="A49" si="7">A48+1</f>
+        <v>32</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="H49" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="217.5" thickBot="1">
+      <c r="A50" s="3">
+        <f t="shared" ref="A50" si="8">A49+1</f>
+        <v>33</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>714</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="H50" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I50" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="217.5" thickBot="1">
+      <c r="A51" s="3">
+        <f t="shared" ref="A51" si="9">A50+1</f>
+        <v>34</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>718</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="H51" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I51" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="230.25" thickBot="1">
+      <c r="A52" s="3">
+        <f t="shared" ref="A52" si="10">A51+1</f>
+        <v>35</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>725</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>727</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G52" s="15" t="s">
+        <v>695</v>
+      </c>
+      <c r="H52" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I52" s="64" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A53" s="3">
+        <f t="shared" ref="A53" si="11">A52+1</f>
+        <v>36</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>728</v>
       </c>
-      <c r="G49" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="H49" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I49" s="65" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A50" s="3">
-        <f t="shared" ref="A50" si="10">A49+1</f>
+      <c r="C53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>730</v>
+      </c>
+      <c r="H53" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I53" s="65" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="47.25" thickBot="1">
+      <c r="B55" s="34" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="26.25" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="30.75" thickBot="1">
+      <c r="A57" s="3">
+        <f>A53+1</f>
         <v>37</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B57" s="22" t="s">
+        <v>728</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7" t="s">
         <v>729</v>
       </c>
-      <c r="C50" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7" t="s">
+      <c r="G57" s="15" t="s">
         <v>730</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="H50" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I50" s="66" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.75" thickBot="1">
-      <c r="B52" s="43" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="26.25" thickBot="1">
-      <c r="A53" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G53" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="30.75" thickBot="1">
-      <c r="A54" s="3">
-        <f>A50+1</f>
-        <v>38</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>729</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7" t="s">
-        <v>730</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="H54" s="58" t="s">
-        <v>264</v>
-      </c>
-      <c r="I54" s="66" t="s">
+      <c r="H57" s="57" t="s">
+        <v>264</v>
+      </c>
+      <c r="I57" s="65" t="s">
         <v>116</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13807,8 +13882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13826,28 +13901,28 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="44" t="s">
         <v>521</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="51" t="s">
         <v>628</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="51" t="s">
         <v>629</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="51" t="s">
         <v>630</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="44" t="s">
         <v>522</v>
       </c>
-      <c r="G2" s="45" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="45" t="s">
+      <c r="G2" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="H2" s="44" t="s">
         <v>265</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="44" t="s">
         <v>266</v>
       </c>
     </row>
@@ -13855,7 +13930,7 @@
       <c r="A3" t="s">
         <v>627</v>
       </c>
-      <c r="B3" s="46">
+      <c r="B3" s="45">
         <v>43213</v>
       </c>
       <c r="C3">
@@ -13867,56 +13942,56 @@
       <c r="E3">
         <v>9</v>
       </c>
-      <c r="F3" s="52">
+      <c r="F3" s="51">
         <f>C3+D3+E3</f>
         <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30">
-      <c r="B4" s="46"/>
-      <c r="C4" s="54" t="s">
+      <c r="B4" s="45"/>
+      <c r="C4" s="53" t="s">
         <v>633</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>632</v>
       </c>
-      <c r="F4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" ht="60">
-      <c r="B5" s="46"/>
-      <c r="C5" s="54" t="s">
+      <c r="F4" s="51"/>
+    </row>
+    <row r="5" spans="1:9" ht="45">
+      <c r="B5" s="45"/>
+      <c r="C5" s="53" t="s">
+        <v>732</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>636</v>
+      </c>
+      <c r="F5" s="51"/>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="B6" s="45"/>
+      <c r="C6" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D6" s="54" t="s">
         <v>637</v>
       </c>
-      <c r="F5" s="52"/>
-    </row>
-    <row r="6" spans="1:9" ht="105">
-      <c r="B6" s="46"/>
-      <c r="C6" s="54" t="s">
+      <c r="F6" s="51"/>
+    </row>
+    <row r="7" spans="1:9" ht="135">
+      <c r="C7" s="53" t="s">
         <v>635</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>638</v>
-      </c>
-      <c r="F6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" ht="135">
-      <c r="C7" s="54" t="s">
-        <v>636</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="54" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="240">
+      <c r="D8" s="53" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="240">
-      <c r="D8" s="54" t="s">
-        <v>648</v>
-      </c>
-    </row>
     <row r="18" spans="3:3">
-      <c r="C18" s="53"/>
+      <c r="C18" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PSM_IntegrationTestCases.xlsx
+++ b/PSM_IntegrationTestCases.xlsx
@@ -3198,28 +3198,10 @@
     <t>Login Page</t>
   </si>
   <si>
-    <t>User Manager</t>
-  </si>
-  <si>
-    <t>Studio Manager</t>
-  </si>
-  <si>
-    <t>District Manager</t>
-  </si>
-  <si>
     <t>Manager Login</t>
   </si>
   <si>
     <t>Studio Profile</t>
-  </si>
-  <si>
-    <t>Package Manager</t>
-  </si>
-  <si>
-    <t>Contract Manager</t>
-  </si>
-  <si>
-    <t>Picture Manager</t>
   </si>
   <si>
     <t>Home Page</t>
@@ -3762,6 +3744,24 @@
   </si>
   <si>
     <t>Album Page</t>
+  </si>
+  <si>
+    <t>User Management</t>
+  </si>
+  <si>
+    <t>Studio Management</t>
+  </si>
+  <si>
+    <t>District Management</t>
+  </si>
+  <si>
+    <t>Package Management</t>
+  </si>
+  <si>
+    <t>Contract Management</t>
+  </si>
+  <si>
+    <t>Picture Management</t>
   </si>
 </sst>
 </file>
@@ -4327,7 +4327,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4549,22 +4549,10 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4596,7 +4584,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4608,8 +4596,17 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4981,7 +4978,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
@@ -5294,7 +5291,7 @@
     </row>
     <row r="17" spans="1:9" ht="24" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39" thickBot="1">
@@ -5320,7 +5317,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>7</v>
@@ -5924,7 +5921,7 @@
     </row>
     <row r="42" spans="1:9" ht="24" thickBot="1">
       <c r="A42" s="13" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="39" thickBot="1">
@@ -5950,7 +5947,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>7</v>
@@ -7236,7 +7233,7 @@
     </row>
     <row r="91" spans="1:9" ht="24" thickBot="1">
       <c r="A91" s="23" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="39" thickBot="1">
@@ -7262,7 +7259,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>7</v>
@@ -7587,7 +7584,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
@@ -7887,10 +7884,10 @@
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="97" t="s">
+      <c r="F15" s="93" t="s">
         <v>523</v>
       </c>
-      <c r="G15" s="98" t="s">
+      <c r="G15" s="94" t="s">
         <v>519</v>
       </c>
       <c r="H15" s="27" t="s">
@@ -7908,10 +7905,10 @@
       <c r="B17" s="32" t="s">
         <v>453</v>
       </c>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="99"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:10" ht="39" thickBot="1">
       <c r="A18" s="1" t="s">
@@ -7929,16 +7926,16 @@
       <c r="E18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="96" t="s">
+      <c r="G18" s="92" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="I18" s="96" t="s">
+        <v>668</v>
+      </c>
+      <c r="I18" s="92" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8087,7 +8084,7 @@
         <v>6</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>7</v>
@@ -8118,7 +8115,7 @@
         <v>243</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J26" s="47"/>
     </row>
@@ -8147,7 +8144,7 @@
         <v>243</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J27" s="47"/>
     </row>
@@ -8176,7 +8173,7 @@
         <v>243</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J28" s="47"/>
     </row>
@@ -8205,7 +8202,7 @@
         <v>243</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J29" s="47"/>
     </row>
@@ -8234,7 +8231,7 @@
         <v>243</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J30" s="47"/>
     </row>
@@ -8263,7 +8260,7 @@
         <v>243</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J31" s="47"/>
     </row>
@@ -8292,7 +8289,7 @@
         <v>243</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J32" s="47"/>
     </row>
@@ -8321,7 +8318,7 @@
         <v>243</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J33" s="47"/>
     </row>
@@ -8350,7 +8347,7 @@
         <v>243</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J34" s="47"/>
     </row>
@@ -8379,7 +8376,7 @@
         <v>243</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J35" s="47"/>
     </row>
@@ -8408,7 +8405,7 @@
         <v>243</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J36" s="47"/>
     </row>
@@ -8437,7 +8434,7 @@
         <v>243</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J37" s="47"/>
     </row>
@@ -8466,7 +8463,7 @@
         <v>243</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J38" s="47"/>
     </row>
@@ -8495,7 +8492,7 @@
         <v>243</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="J39" s="47"/>
     </row>
@@ -8513,7 +8510,7 @@
     </row>
     <row r="41" spans="1:10" ht="36.75" thickBot="1">
       <c r="B41" s="32" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="39" thickBot="1">
@@ -8539,7 +8536,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>7</v>
@@ -8671,7 +8668,7 @@
         <v>243</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="90.75" thickBot="1">
@@ -8699,7 +8696,7 @@
         <v>243</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="90.75" thickBot="1">
@@ -8727,7 +8724,7 @@
         <v>243</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="90.75" thickBot="1">
@@ -8755,7 +8752,7 @@
         <v>243</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="105.75" thickBot="1">
@@ -8783,7 +8780,7 @@
         <v>243</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45.75" thickBot="1">
@@ -8826,7 +8823,7 @@
       <c r="D53" s="4"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G53" s="15" t="s">
         <v>102</v>
@@ -8839,7 +8836,7 @@
     <row r="54" spans="1:9" ht="30.75" thickBot="1">
       <c r="A54" s="5"/>
       <c r="B54" s="15" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>9</v>
@@ -8847,10 +8844,10 @@
       <c r="D54" s="4"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="H54" s="27" t="s">
         <v>243</v>
@@ -8863,7 +8860,7 @@
         <v>12</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>9</v>
@@ -8873,16 +8870,16 @@
         <v>52</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="H55" s="27" t="s">
         <v>243</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="105.75" thickBot="1">
@@ -8901,7 +8898,7 @@
         <v>52</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="G56" s="15" t="s">
         <v>375</v>
@@ -8910,7 +8907,7 @@
         <v>243</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="105.75" thickBot="1">
@@ -8938,7 +8935,7 @@
         <v>243</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="105.75" thickBot="1">
@@ -8966,7 +8963,7 @@
         <v>243</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="120.75" thickBot="1">
@@ -8994,7 +8991,7 @@
         <v>243</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45.75" thickBot="1">
@@ -9055,7 +9052,7 @@
         <v>6</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>7</v>
@@ -9313,7 +9310,7 @@
         <v>243</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="225.75" thickBot="1">
@@ -9341,7 +9338,7 @@
         <v>243</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="270.75" thickBot="1">
@@ -9397,7 +9394,7 @@
         <v>243</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="225.75" thickBot="1">
@@ -9425,7 +9422,7 @@
         <v>243</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="225.75" thickBot="1">
@@ -9453,7 +9450,7 @@
         <v>243</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="45.75" thickBot="1">
@@ -9507,7 +9504,7 @@
         <v>243</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="225.75" thickBot="1">
@@ -9535,7 +9532,7 @@
         <v>243</v>
       </c>
       <c r="I81" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="225.75" thickBot="1">
@@ -9563,7 +9560,7 @@
         <v>243</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="225.75" thickBot="1">
@@ -9591,7 +9588,7 @@
         <v>243</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="225.75" thickBot="1">
@@ -9619,7 +9616,7 @@
         <v>243</v>
       </c>
       <c r="I84" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="225.75" thickBot="1">
@@ -9647,7 +9644,7 @@
         <v>243</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="60.75" thickBot="1">
@@ -9725,7 +9722,7 @@
         <v>243</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="225.75" thickBot="1">
@@ -9753,7 +9750,7 @@
         <v>243</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="225.75" thickBot="1">
@@ -9781,7 +9778,7 @@
         <v>243</v>
       </c>
       <c r="I90" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="225.75" thickBot="1">
@@ -9809,7 +9806,7 @@
         <v>243</v>
       </c>
       <c r="I91" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="225.75" thickBot="1">
@@ -9837,7 +9834,7 @@
         <v>243</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="225.75" thickBot="1">
@@ -9865,7 +9862,7 @@
         <v>243</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="225.75" thickBot="1">
@@ -9893,7 +9890,7 @@
         <v>243</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="225.75" thickBot="1">
@@ -9902,7 +9899,7 @@
         <v>32</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>9</v>
@@ -9921,7 +9918,7 @@
         <v>243</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="225.75" thickBot="1">
@@ -9949,7 +9946,7 @@
         <v>243</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="225.75" thickBot="1">
@@ -9977,7 +9974,7 @@
         <v>243</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="225.75" thickBot="1">
@@ -10005,7 +10002,7 @@
         <v>243</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="225.75" thickBot="1">
@@ -10033,7 +10030,7 @@
         <v>243</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="225.75" thickBot="1">
@@ -10061,7 +10058,7 @@
         <v>243</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="225.75" thickBot="1">
@@ -10089,7 +10086,7 @@
         <v>243</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="45.75" thickBot="1">
@@ -10141,7 +10138,7 @@
         <v>243</v>
       </c>
       <c r="I103" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="225.75" thickBot="1">
@@ -10169,7 +10166,7 @@
         <v>243</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="270.75" thickBot="1">
@@ -10393,7 +10390,7 @@
         <v>243</v>
       </c>
       <c r="I112" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="45.75" thickBot="1">
@@ -10445,7 +10442,7 @@
         <v>243</v>
       </c>
       <c r="I114" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="225.75" thickBot="1">
@@ -10473,7 +10470,7 @@
         <v>243</v>
       </c>
       <c r="I115" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="225.75" thickBot="1">
@@ -10501,7 +10498,7 @@
         <v>243</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="225.75" thickBot="1">
@@ -10529,7 +10526,7 @@
         <v>243</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="225.75" thickBot="1">
@@ -10557,7 +10554,7 @@
         <v>243</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="225.75" thickBot="1">
@@ -10585,7 +10582,7 @@
         <v>243</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="225.75" thickBot="1">
@@ -10613,7 +10610,7 @@
         <v>243</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="225.75" thickBot="1">
@@ -10641,7 +10638,7 @@
         <v>243</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="225.75" thickBot="1">
@@ -10650,7 +10647,7 @@
         <v>59</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>9</v>
@@ -10669,7 +10666,7 @@
         <v>243</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="225.75" thickBot="1">
@@ -10697,7 +10694,7 @@
         <v>243</v>
       </c>
       <c r="I123" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="225.75" thickBot="1">
@@ -10725,7 +10722,7 @@
         <v>243</v>
       </c>
       <c r="I124" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="225.75" thickBot="1">
@@ -10753,7 +10750,7 @@
         <v>243</v>
       </c>
       <c r="I125" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="225.75" thickBot="1">
@@ -10781,7 +10778,7 @@
         <v>243</v>
       </c>
       <c r="I126" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="225.75" thickBot="1">
@@ -10809,7 +10806,7 @@
         <v>243</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="225.75" thickBot="1">
@@ -10837,7 +10834,7 @@
         <v>243</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="225.75" thickBot="1">
@@ -10867,7 +10864,7 @@
         <v>243</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="45.75" thickBot="1">
@@ -10919,7 +10916,7 @@
         <v>243</v>
       </c>
       <c r="I131" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="225.75" thickBot="1">
@@ -10947,7 +10944,7 @@
         <v>243</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="225.75" thickBot="1">
@@ -10975,7 +10972,7 @@
         <v>243</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="225.75" thickBot="1">
@@ -11003,7 +11000,7 @@
         <v>243</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="225.75" thickBot="1">
@@ -11031,7 +11028,7 @@
         <v>243</v>
       </c>
       <c r="I135" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="225.75" thickBot="1">
@@ -11059,7 +11056,7 @@
         <v>243</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="225.75" thickBot="1">
@@ -11087,7 +11084,7 @@
         <v>243</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225.75" thickBot="1">
@@ -11115,7 +11112,7 @@
         <v>243</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="225.75" thickBot="1">
@@ -11143,7 +11140,7 @@
         <v>243</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="225.75" thickBot="1">
@@ -11171,7 +11168,7 @@
         <v>243</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="270.75" thickBot="1">
@@ -11216,7 +11213,7 @@
     <row r="143" spans="1:9" ht="47.25" thickBot="1">
       <c r="A143" s="44"/>
       <c r="B143" s="34" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="39" thickBot="1">
@@ -11242,7 +11239,7 @@
         <v>6</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>7</v>
@@ -11712,7 +11709,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
@@ -12536,7 +12533,7 @@
         <v>243</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="204.75" thickBot="1">
@@ -12564,7 +12561,7 @@
         <v>243</v>
       </c>
       <c r="I42" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="204.75" thickBot="1">
@@ -12592,7 +12589,7 @@
         <v>243</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="143.25" thickBot="1">
@@ -12620,7 +12617,7 @@
         <v>243</v>
       </c>
       <c r="I44" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="204.75" thickBot="1">
@@ -12648,7 +12645,7 @@
         <v>243</v>
       </c>
       <c r="I45" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="204.75" thickBot="1">
@@ -12676,7 +12673,7 @@
         <v>243</v>
       </c>
       <c r="I46" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="204.75" thickBot="1">
@@ -12704,7 +12701,7 @@
         <v>243</v>
       </c>
       <c r="I47" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="217.5" thickBot="1">
@@ -12713,7 +12710,7 @@
         <v>8</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
@@ -12732,7 +12729,7 @@
         <v>243</v>
       </c>
       <c r="I48" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="217.5" thickBot="1">
@@ -12760,7 +12757,7 @@
         <v>243</v>
       </c>
       <c r="I49" s="58" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30.75" thickBot="1">
@@ -12923,8 +12920,8 @@
       <c r="I57" s="59"/>
     </row>
     <row r="59" spans="1:9" ht="53.25" thickBot="1">
-      <c r="B59" s="101" t="s">
-        <v>695</v>
+      <c r="B59" s="97" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="26.25" thickBot="1">
@@ -12961,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
@@ -12990,13 +12987,13 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:A23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="6" width="10" customWidth="1"/>
@@ -13007,15 +13004,15 @@
       <c r="A1" s="62" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="103" t="s">
+      <c r="B1" s="99" t="s">
         <v>655</v>
       </c>
-      <c r="C1" s="103"/>
-      <c r="D1" s="104" t="s">
+      <c r="C1" s="99"/>
+      <c r="D1" s="100" t="s">
         <v>639</v>
       </c>
-      <c r="E1" s="104"/>
-      <c r="F1" s="94"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="90"/>
       <c r="G1" s="80" t="s">
         <v>657</v>
       </c>
@@ -13028,11 +13025,11 @@
         <v>658</v>
       </c>
       <c r="C2" s="83"/>
-      <c r="D2" s="104" t="s">
+      <c r="D2" s="100" t="s">
         <v>641</v>
       </c>
-      <c r="E2" s="104"/>
-      <c r="F2" s="94"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="80" t="s">
         <v>656</v>
       </c>
@@ -13041,15 +13038,15 @@
       <c r="A3" s="63" t="s">
         <v>642</v>
       </c>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="99" t="s">
         <v>659</v>
       </c>
-      <c r="C3" s="103"/>
-      <c r="D3" s="104" t="s">
+      <c r="C3" s="99"/>
+      <c r="D3" s="100" t="s">
         <v>643</v>
       </c>
-      <c r="E3" s="104"/>
-      <c r="F3" s="94"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="82">
         <v>43181</v>
       </c>
@@ -13058,12 +13055,12 @@
       <c r="A4" s="63" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="105"/>
-      <c r="C4" s="105"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="105"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="64"/>
@@ -13119,398 +13116,398 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A9" s="106">
+      <c r="A9" s="98">
         <v>1</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="102" t="s">
         <v>660</v>
       </c>
-      <c r="C9" s="86">
+      <c r="C9" s="85">
         <v>12</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="85">
         <v>0</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="85">
         <v>0</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="85">
         <v>0</v>
       </c>
-      <c r="G9" s="86">
+      <c r="G9" s="85">
         <f>SUM(C9:F9)</f>
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A10" s="106">
+      <c r="A10" s="98">
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="85" t="s">
-        <v>661</v>
-      </c>
-      <c r="C10" s="86">
+      <c r="B10" s="102" t="s">
+        <v>692</v>
+      </c>
+      <c r="C10" s="85">
         <v>22</v>
       </c>
-      <c r="D10" s="86">
+      <c r="D10" s="85">
         <v>0</v>
       </c>
-      <c r="E10" s="86">
+      <c r="E10" s="85">
         <v>0</v>
       </c>
-      <c r="F10" s="86">
+      <c r="F10" s="85">
         <v>0</v>
       </c>
-      <c r="G10" s="86">
+      <c r="G10" s="85">
         <f t="shared" ref="G10:G23" si="0">SUM(C10:F10)</f>
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A11" s="106">
+      <c r="A11" s="98">
         <f t="shared" ref="A11:A23" si="1">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="85" t="s">
-        <v>662</v>
-      </c>
-      <c r="C11" s="86">
+      <c r="B11" s="102" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11" s="85">
         <v>46</v>
       </c>
-      <c r="D11" s="86">
+      <c r="D11" s="85">
         <v>0</v>
       </c>
-      <c r="E11" s="86">
+      <c r="E11" s="85">
         <v>0</v>
       </c>
-      <c r="F11" s="86">
+      <c r="F11" s="85">
         <v>0</v>
       </c>
-      <c r="G11" s="86">
+      <c r="G11" s="85">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="106">
+      <c r="A12" s="98">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B12" s="87" t="s">
-        <v>663</v>
-      </c>
-      <c r="C12" s="88">
-        <v>9</v>
-      </c>
-      <c r="D12" s="86">
+      <c r="B12" s="103" t="s">
+        <v>694</v>
+      </c>
+      <c r="C12" s="86">
+        <v>9</v>
+      </c>
+      <c r="D12" s="85">
         <v>0</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="85">
         <v>0</v>
       </c>
-      <c r="F12" s="86">
+      <c r="F12" s="85">
         <v>0</v>
       </c>
-      <c r="G12" s="86">
+      <c r="G12" s="85">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A13" s="106">
+      <c r="A13" s="98">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B13" s="87" t="s">
-        <v>664</v>
-      </c>
-      <c r="C13" s="88">
+      <c r="B13" s="103" t="s">
+        <v>661</v>
+      </c>
+      <c r="C13" s="86">
         <v>4</v>
       </c>
-      <c r="D13" s="86">
+      <c r="D13" s="85">
         <v>0</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="85">
         <v>0</v>
       </c>
-      <c r="F13" s="86">
+      <c r="F13" s="85">
         <v>0</v>
       </c>
-      <c r="G13" s="86">
+      <c r="G13" s="85">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A14" s="106">
+      <c r="A14" s="98">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B14" s="89" t="s">
-        <v>665</v>
-      </c>
-      <c r="C14" s="88">
+      <c r="B14" s="104" t="s">
+        <v>662</v>
+      </c>
+      <c r="C14" s="86">
         <v>14</v>
       </c>
-      <c r="D14" s="86">
+      <c r="D14" s="85">
         <v>0</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="85">
         <v>0</v>
       </c>
-      <c r="F14" s="86">
+      <c r="F14" s="85">
         <v>0</v>
       </c>
-      <c r="G14" s="86">
+      <c r="G14" s="85">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A15" s="106">
+      <c r="A15" s="98">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B15" s="90" t="s">
-        <v>666</v>
-      </c>
-      <c r="C15" s="88">
+      <c r="B15" s="105" t="s">
+        <v>695</v>
+      </c>
+      <c r="C15" s="86">
         <v>17</v>
       </c>
-      <c r="D15" s="86">
+      <c r="D15" s="85">
         <v>0</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="85">
         <v>0</v>
       </c>
-      <c r="F15" s="86">
+      <c r="F15" s="85">
         <v>0</v>
       </c>
-      <c r="G15" s="86">
+      <c r="G15" s="85">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A16" s="106">
+      <c r="A16" s="98">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B16" s="90" t="s">
-        <v>667</v>
-      </c>
-      <c r="C16" s="88">
+      <c r="B16" s="105" t="s">
+        <v>696</v>
+      </c>
+      <c r="C16" s="86">
         <v>78</v>
       </c>
-      <c r="D16" s="86">
+      <c r="D16" s="85">
         <v>0</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="85">
         <v>0</v>
       </c>
-      <c r="F16" s="86">
+      <c r="F16" s="85">
         <v>0</v>
       </c>
-      <c r="G16" s="86">
+      <c r="G16" s="85">
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A17" s="106">
+      <c r="A17" s="98">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B17" s="90" t="s">
-        <v>668</v>
-      </c>
-      <c r="C17" s="88">
+      <c r="B17" s="105" t="s">
+        <v>697</v>
+      </c>
+      <c r="C17" s="86">
         <v>16</v>
       </c>
-      <c r="D17" s="86">
+      <c r="D17" s="85">
         <v>0</v>
       </c>
-      <c r="E17" s="86">
+      <c r="E17" s="85">
         <v>0</v>
       </c>
-      <c r="F17" s="86">
+      <c r="F17" s="85">
         <v>0</v>
       </c>
-      <c r="G17" s="86">
+      <c r="G17" s="85">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A18" s="106">
+      <c r="A18" s="98">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B18" s="90" t="s">
-        <v>669</v>
-      </c>
-      <c r="C18" s="88">
+      <c r="B18" s="105" t="s">
+        <v>663</v>
+      </c>
+      <c r="C18" s="86">
         <v>15</v>
       </c>
-      <c r="D18" s="86">
+      <c r="D18" s="85">
         <v>0</v>
       </c>
-      <c r="E18" s="86">
+      <c r="E18" s="85">
         <v>0</v>
       </c>
-      <c r="F18" s="86">
+      <c r="F18" s="85">
         <v>0</v>
       </c>
-      <c r="G18" s="86">
+      <c r="G18" s="85">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A19" s="106">
+      <c r="A19" s="98">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B19" s="90" t="s">
-        <v>670</v>
-      </c>
-      <c r="C19" s="88">
+      <c r="B19" s="105" t="s">
+        <v>664</v>
+      </c>
+      <c r="C19" s="86">
         <v>5</v>
       </c>
-      <c r="D19" s="86">
+      <c r="D19" s="85">
         <v>0</v>
       </c>
-      <c r="E19" s="86">
+      <c r="E19" s="85">
         <v>0</v>
       </c>
-      <c r="F19" s="86">
+      <c r="F19" s="85">
         <v>0</v>
       </c>
-      <c r="G19" s="86">
+      <c r="G19" s="85">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A20" s="106">
+      <c r="A20" s="98">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B20" s="90" t="s">
-        <v>671</v>
-      </c>
-      <c r="C20" s="88">
+      <c r="B20" s="105" t="s">
+        <v>665</v>
+      </c>
+      <c r="C20" s="86">
         <v>8</v>
       </c>
-      <c r="D20" s="86">
+      <c r="D20" s="85">
         <v>0</v>
       </c>
-      <c r="E20" s="86">
+      <c r="E20" s="85">
         <v>0</v>
       </c>
-      <c r="F20" s="86">
+      <c r="F20" s="85">
         <v>0</v>
       </c>
-      <c r="G20" s="86">
+      <c r="G20" s="85">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A21" s="106">
+      <c r="A21" s="98">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B21" s="90" t="s">
-        <v>672</v>
-      </c>
-      <c r="C21" s="88">
+      <c r="B21" s="105" t="s">
+        <v>666</v>
+      </c>
+      <c r="C21" s="86">
         <v>10</v>
       </c>
-      <c r="D21" s="86">
+      <c r="D21" s="85">
         <v>0</v>
       </c>
-      <c r="E21" s="86">
+      <c r="E21" s="85">
         <v>0</v>
       </c>
-      <c r="F21" s="86">
+      <c r="F21" s="85">
         <v>0</v>
       </c>
-      <c r="G21" s="86">
+      <c r="G21" s="85">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A22" s="106">
+      <c r="A22" s="98">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B22" s="90" t="s">
-        <v>673</v>
-      </c>
-      <c r="C22" s="88">
+      <c r="B22" s="105" t="s">
+        <v>667</v>
+      </c>
+      <c r="C22" s="86">
         <v>4</v>
       </c>
-      <c r="D22" s="86">
+      <c r="D22" s="85">
         <v>0</v>
       </c>
-      <c r="E22" s="86">
+      <c r="E22" s="85">
         <v>0</v>
       </c>
-      <c r="F22" s="86">
+      <c r="F22" s="85">
         <v>0</v>
       </c>
-      <c r="G22" s="86">
+      <c r="G22" s="85">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A23" s="106">
+      <c r="A23" s="98">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B23" s="102" t="s">
-        <v>697</v>
-      </c>
-      <c r="C23" s="86">
+      <c r="B23" s="105" t="s">
+        <v>691</v>
+      </c>
+      <c r="C23" s="85">
         <v>1</v>
       </c>
-      <c r="D23" s="86">
+      <c r="D23" s="85">
         <v>0</v>
       </c>
-      <c r="E23" s="86">
+      <c r="E23" s="85">
         <v>0</v>
       </c>
-      <c r="F23" s="86">
+      <c r="F23" s="85">
         <v>0</v>
       </c>
-      <c r="G23" s="86">
+      <c r="G23" s="85">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="88" t="s">
         <v>651</v>
       </c>
-      <c r="C24" s="93">
+      <c r="C24" s="89">
         <f>SUM(C9:C23)</f>
         <v>261</v>
       </c>
-      <c r="D24" s="93">
+      <c r="D24" s="89">
         <v>0</v>
       </c>
-      <c r="E24" s="93">
+      <c r="E24" s="89">
         <v>0</v>
       </c>
-      <c r="F24" s="93">
+      <c r="F24" s="89">
         <v>0</v>
       </c>
-      <c r="G24" s="93">
+      <c r="G24" s="89">
         <f>SUM(G9:G23)</f>
         <v>261</v>
       </c>
@@ -13566,5 +13563,6 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PSM_IntegrationTestCases.xlsx
+++ b/PSM_IntegrationTestCases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="14355" windowHeight="5205" activeTab="3"/>
@@ -12,7 +12,7 @@
     <sheet name="Customer Testcase" sheetId="4" r:id="rId3"/>
     <sheet name="Test Report" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>1. Login</t>
-  </si>
-  <si>
-    <t>Pass/Fail</t>
   </si>
   <si>
     <t>1. Click search button</t>
@@ -3763,11 +3760,14 @@
   <si>
     <t>Picture Management</t>
   </si>
+  <si>
+    <t>Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yy;@"/>
   </numFmts>
@@ -4587,15 +4587,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4607,6 +4598,15 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4699,7 +4699,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4734,7 +4733,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4910,10 +4908,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I110"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
@@ -4932,7 +4930,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18">
       <c r="B1" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
@@ -4978,7 +4976,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
@@ -4998,16 +4996,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4" s="28"/>
     </row>
@@ -5024,16 +5022,16 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5" s="28"/>
     </row>
@@ -5043,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -5052,16 +5050,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="28"/>
     </row>
@@ -5071,7 +5069,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -5080,16 +5078,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I7" s="28"/>
     </row>
@@ -5099,7 +5097,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -5107,13 +5105,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8" s="28"/>
     </row>
@@ -5123,7 +5121,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -5131,13 +5129,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="H9" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" s="28"/>
     </row>
@@ -5147,7 +5145,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -5155,13 +5153,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I10" s="28"/>
     </row>
@@ -5171,7 +5169,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -5179,13 +5177,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>511</v>
-      </c>
       <c r="H11" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I11" s="28"/>
     </row>
@@ -5195,25 +5193,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>516</v>
-      </c>
       <c r="H12" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="28"/>
     </row>
@@ -5223,7 +5221,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -5231,13 +5229,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>519</v>
-      </c>
       <c r="H13" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" s="28"/>
     </row>
@@ -5247,7 +5245,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -5255,13 +5253,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I14" s="28"/>
     </row>
@@ -5271,7 +5269,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -5279,19 +5277,19 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I15" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="24" thickBot="1">
       <c r="A17" s="13" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="39" thickBot="1">
@@ -5317,7 +5315,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>7</v>
@@ -5328,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -5336,13 +5334,13 @@
       <c r="D19" s="4"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I19" s="28"/>
     </row>
@@ -5352,25 +5350,25 @@
         <v>2</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="G20" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I20" s="28"/>
     </row>
@@ -5380,25 +5378,25 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="F21" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="G21" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I21" s="28"/>
     </row>
@@ -5408,23 +5406,23 @@
         <v>4</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>306</v>
-      </c>
       <c r="G22" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I22" s="28"/>
     </row>
@@ -5434,7 +5432,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>9</v>
@@ -5442,13 +5440,13 @@
       <c r="D23" s="4"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I23" s="28"/>
     </row>
@@ -5458,7 +5456,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>14</v>
@@ -5466,11 +5464,11 @@
       <c r="D24" s="4"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I24" s="28"/>
     </row>
@@ -5480,26 +5478,26 @@
         <v>7</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F25" s="16" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I25" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="105.75" thickBot="1">
@@ -5508,26 +5506,26 @@
         <v>8</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C26" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="F26" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="F26" s="15" t="s">
-        <v>309</v>
-      </c>
       <c r="G26" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I26" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="135.75" thickBot="1">
@@ -5536,26 +5534,26 @@
         <v>9</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="F27" s="15" t="s">
-        <v>312</v>
-      </c>
       <c r="G27" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I27" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="105.75" thickBot="1">
@@ -5564,26 +5562,26 @@
         <v>10</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="F28" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>315</v>
-      </c>
       <c r="G28" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I28" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="105.75" thickBot="1">
@@ -5592,26 +5590,26 @@
         <v>11</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="F29" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="G29" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I29" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="105.75" thickBot="1">
@@ -5620,26 +5618,26 @@
         <v>12</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="F30" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="F30" s="15" t="s">
-        <v>320</v>
-      </c>
       <c r="G30" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I30" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="105.75" thickBot="1">
@@ -5648,26 +5646,26 @@
         <v>13</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="F31" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="F31" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="G31" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I31" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="135.75" thickBot="1">
@@ -5676,26 +5674,26 @@
         <v>14</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="F32" s="15" t="s">
-        <v>291</v>
-      </c>
       <c r="G32" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I32" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="105.75" thickBot="1">
@@ -5704,26 +5702,26 @@
         <v>15</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I33" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="45.75" thickBot="1">
@@ -5732,23 +5730,23 @@
         <v>16</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="16" t="s">
+      <c r="G34" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="H34" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I34" s="28"/>
     </row>
@@ -5758,7 +5756,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>9</v>
@@ -5766,13 +5764,13 @@
       <c r="D35" s="4"/>
       <c r="E35" s="15"/>
       <c r="F35" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G35" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="15" t="s">
-        <v>34</v>
-      </c>
       <c r="H35" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I35" s="28"/>
     </row>
@@ -5782,26 +5780,26 @@
         <v>18</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="G36" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="75.75" thickBot="1">
@@ -5810,23 +5808,23 @@
         <v>19</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="F37" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="F37" s="15" t="s">
-        <v>293</v>
-      </c>
       <c r="G37" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I37" s="28"/>
     </row>
@@ -5836,26 +5834,26 @@
         <v>20</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="15" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I38" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="105.75" thickBot="1">
@@ -5864,26 +5862,26 @@
         <v>21</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I39" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="105.75" thickBot="1">
@@ -5892,26 +5890,26 @@
         <v>22</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="16" t="s">
+      <c r="G40" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="G40" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="H40" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I40" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5921,7 +5919,7 @@
     </row>
     <row r="42" spans="1:9" ht="24" thickBot="1">
       <c r="A42" s="13" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="39" thickBot="1">
@@ -5947,7 +5945,7 @@
         <v>6</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>7</v>
@@ -5958,7 +5956,7 @@
         <v>1</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>9</v>
@@ -5966,13 +5964,13 @@
       <c r="D44" s="4"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G44" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I44" s="28"/>
     </row>
@@ -5982,25 +5980,25 @@
         <v>2</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="E45" s="16" t="s">
-        <v>113</v>
-      </c>
       <c r="F45" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I45" s="28"/>
     </row>
@@ -6010,25 +6008,25 @@
         <v>3</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I46" s="28"/>
     </row>
@@ -6038,25 +6036,25 @@
         <v>4</v>
       </c>
       <c r="B47" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>116</v>
-      </c>
       <c r="E47" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H47" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I47" s="28"/>
     </row>
@@ -6066,23 +6064,23 @@
         <v>5</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F48" s="15" t="s">
-        <v>29</v>
-      </c>
       <c r="G48" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I48" s="28"/>
     </row>
@@ -6092,26 +6090,26 @@
         <v>6</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="186" thickBot="1">
@@ -6120,26 +6118,26 @@
         <v>7</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I50" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="186" thickBot="1">
@@ -6148,26 +6146,26 @@
         <v>8</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I51" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="186" thickBot="1">
@@ -6176,26 +6174,26 @@
         <v>9</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F52" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="G52" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="G52" s="15" t="s">
-        <v>375</v>
-      </c>
       <c r="H52" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I52" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="186" thickBot="1">
@@ -6204,26 +6202,26 @@
         <v>10</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I53" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="186" thickBot="1">
@@ -6232,26 +6230,26 @@
         <v>11</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I54" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="186" thickBot="1">
@@ -6260,26 +6258,26 @@
         <v>12</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="F55" s="15" t="s">
         <v>342</v>
       </c>
-      <c r="F55" s="15" t="s">
-        <v>343</v>
-      </c>
       <c r="G55" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H55" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I55" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="186" thickBot="1">
@@ -6288,26 +6286,26 @@
         <v>13</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I56" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="186" thickBot="1">
@@ -6316,26 +6314,26 @@
         <v>14</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="F57" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="F57" s="15" t="s">
-        <v>355</v>
-      </c>
       <c r="G57" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I57" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="186" thickBot="1">
@@ -6344,26 +6342,26 @@
         <v>15</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="F58" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="F58" s="15" t="s">
-        <v>358</v>
-      </c>
       <c r="G58" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I58" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="186" thickBot="1">
@@ -6372,26 +6370,26 @@
         <v>16</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I59" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="186" thickBot="1">
@@ -6400,26 +6398,26 @@
         <v>17</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="F60" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="F60" s="15" t="s">
-        <v>361</v>
-      </c>
       <c r="G60" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I60" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="186" thickBot="1">
@@ -6428,26 +6426,26 @@
         <v>18</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C61" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F61" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H61" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I61" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="186" thickBot="1">
@@ -6456,26 +6454,26 @@
         <v>19</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C62" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="F62" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>396</v>
-      </c>
       <c r="G62" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H62" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I62" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="186" thickBot="1">
@@ -6484,26 +6482,26 @@
         <v>20</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C63" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H63" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I63" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="186" thickBot="1">
@@ -6512,26 +6510,26 @@
         <v>21</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F64" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F64" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="G64" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H64" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I64" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="186" thickBot="1">
@@ -6540,26 +6538,26 @@
         <v>22</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H65" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="30.75" thickBot="1">
@@ -6568,7 +6566,7 @@
         <v>23</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>9</v>
@@ -6576,13 +6574,13 @@
       <c r="D66" s="4"/>
       <c r="E66" s="15"/>
       <c r="F66" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="G66" s="15" t="s">
-        <v>56</v>
-      </c>
       <c r="H66" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I66" s="28"/>
     </row>
@@ -6592,26 +6590,26 @@
         <v>24</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G67" s="15" t="s">
-        <v>58</v>
-      </c>
       <c r="H67" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I67" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="214.5" thickBot="1">
@@ -6620,26 +6618,26 @@
         <v>25</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F68" s="16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="214.5" thickBot="1">
@@ -6648,26 +6646,26 @@
         <v>26</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F69" s="16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I69" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="214.5" thickBot="1">
@@ -6676,26 +6674,26 @@
         <v>27</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F70" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H70" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I70" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="214.5" thickBot="1">
@@ -6704,26 +6702,26 @@
         <v>28</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="F71" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="F71" s="16" t="s">
-        <v>372</v>
-      </c>
       <c r="G71" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H71" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I71" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="214.5" thickBot="1">
@@ -6732,26 +6730,26 @@
         <v>29</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F72" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="F72" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="G72" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H72" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I72" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="214.5" thickBot="1">
@@ -6760,26 +6758,26 @@
         <v>30</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C73" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="F73" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="F73" s="16" t="s">
-        <v>378</v>
-      </c>
       <c r="G73" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H73" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="214.5" thickBot="1">
@@ -6788,26 +6786,26 @@
         <v>31</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>381</v>
-      </c>
       <c r="G74" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I74" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="214.5" thickBot="1">
@@ -6816,26 +6814,26 @@
         <v>32</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="214.5" thickBot="1">
@@ -6844,26 +6842,26 @@
         <v>33</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C76" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I76" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="214.5" thickBot="1">
@@ -6872,26 +6870,26 @@
         <v>34</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C77" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I77" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="214.5" thickBot="1">
@@ -6900,26 +6898,26 @@
         <v>35</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C78" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F78" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="G78" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="G78" s="15" t="s">
-        <v>385</v>
-      </c>
       <c r="H78" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I78" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="214.5" thickBot="1">
@@ -6928,26 +6926,26 @@
         <v>36</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C79" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H79" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I79" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="214.5" thickBot="1">
@@ -6956,26 +6954,26 @@
         <v>37</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C80" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H80" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I80" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="214.5" thickBot="1">
@@ -6984,26 +6982,26 @@
         <v>38</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C81" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I81" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="214.5" thickBot="1">
@@ -7012,26 +7010,26 @@
         <v>39</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C82" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I82" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="214.5" thickBot="1">
@@ -7040,26 +7038,26 @@
         <v>40</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C83" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I83" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="214.5" thickBot="1">
@@ -7068,26 +7066,26 @@
         <v>41</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C84" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I84" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="214.5" thickBot="1">
@@ -7096,26 +7094,26 @@
         <v>42</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C85" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="214.5" thickBot="1">
@@ -7124,26 +7122,26 @@
         <v>43</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F86" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G86" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H86" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="214.5" thickBot="1">
@@ -7152,26 +7150,26 @@
         <v>44</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="F87" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="F87" s="16" t="s">
-        <v>142</v>
-      </c>
       <c r="G87" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H87" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I87" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="214.5" thickBot="1">
@@ -7180,26 +7178,26 @@
         <v>45</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C88" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F88" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F88" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="G88" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H88" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I88" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="45.75" thickBot="1">
@@ -7208,23 +7206,23 @@
         <v>46</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F89" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F89" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="G89" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I89" s="28"/>
     </row>
@@ -7233,7 +7231,7 @@
     </row>
     <row r="91" spans="1:9" ht="24" thickBot="1">
       <c r="A91" s="23" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="39" thickBot="1">
@@ -7259,7 +7257,7 @@
         <v>6</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>7</v>
@@ -7270,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>9</v>
@@ -7278,11 +7276,11 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G93" s="4"/>
       <c r="H93" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I93" s="28"/>
     </row>
@@ -7292,26 +7290,26 @@
         <v>2</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F94" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G94" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G94" s="16" t="s">
-        <v>74</v>
-      </c>
       <c r="H94" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I94" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="60.75" thickBot="1">
@@ -7320,7 +7318,7 @@
         <v>3</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>9</v>
@@ -7328,16 +7326,16 @@
       <c r="D95" s="4"/>
       <c r="E95" s="16"/>
       <c r="F95" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H95" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I95" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="60.75" thickBot="1">
@@ -7346,26 +7344,26 @@
         <v>4</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="F96" s="16" t="s">
-        <v>405</v>
-      </c>
       <c r="G96" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I96" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="60.75" thickBot="1">
@@ -7374,26 +7372,26 @@
         <v>5</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="F97" s="16" t="s">
-        <v>408</v>
-      </c>
       <c r="G97" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I97" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="60.75" thickBot="1">
@@ -7402,26 +7400,26 @@
         <v>6</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="F98" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="F98" s="16" t="s">
-        <v>411</v>
-      </c>
       <c r="G98" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H98" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I98" s="36" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="45.75" thickBot="1">
@@ -7430,7 +7428,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>9</v>
@@ -7438,13 +7436,13 @@
       <c r="D99" s="4"/>
       <c r="E99" s="16"/>
       <c r="F99" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I99" s="28"/>
     </row>
@@ -7454,23 +7452,23 @@
         <v>8</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F100" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="G100" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="G100" s="16" t="s">
-        <v>125</v>
-      </c>
       <c r="H100" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I100" s="28"/>
     </row>
@@ -7480,7 +7478,7 @@
         <v>9</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>9</v>
@@ -7488,13 +7486,13 @@
       <c r="D101" s="4"/>
       <c r="E101" s="16"/>
       <c r="F101" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G101" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I101" s="28"/>
     </row>
@@ -7532,11 +7530,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B143" sqref="B143"/>
+    <sheetView topLeftCell="A109" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H110" sqref="H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7553,12 +7551,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
       <c r="B1" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="21.75" thickBot="1">
       <c r="B2" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="39" thickBot="1">
@@ -7584,7 +7582,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
@@ -7604,16 +7602,16 @@
         <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4" s="28"/>
     </row>
@@ -7630,16 +7628,16 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5" s="28"/>
     </row>
@@ -7649,7 +7647,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>14</v>
@@ -7658,16 +7656,16 @@
         <v>10</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="28"/>
     </row>
@@ -7677,7 +7675,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>14</v>
@@ -7686,16 +7684,16 @@
         <v>10</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I7" s="28"/>
     </row>
@@ -7705,7 +7703,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -7713,13 +7711,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8" s="28"/>
     </row>
@@ -7729,7 +7727,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>14</v>
@@ -7737,13 +7735,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>336</v>
-      </c>
       <c r="H9" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" s="28"/>
     </row>
@@ -7753,7 +7751,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
@@ -7761,13 +7759,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I10" s="28"/>
     </row>
@@ -7777,7 +7775,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -7785,13 +7783,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>511</v>
-      </c>
       <c r="H11" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I11" s="28"/>
     </row>
@@ -7801,25 +7799,25 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="7" t="s">
+      <c r="E12" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="F12" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="G12" s="15" t="s">
-        <v>516</v>
-      </c>
       <c r="H12" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="28"/>
     </row>
@@ -7829,7 +7827,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -7837,13 +7835,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>519</v>
-      </c>
       <c r="H13" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" s="28"/>
     </row>
@@ -7853,7 +7851,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -7861,13 +7859,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I14" s="28"/>
     </row>
@@ -7877,7 +7875,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -7885,13 +7883,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="93" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G15" s="94" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I15" s="27"/>
     </row>
@@ -7903,7 +7901,7 @@
     </row>
     <row r="17" spans="1:10" ht="36.75" thickBot="1">
       <c r="B17" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F17" s="95"/>
       <c r="G17" s="95"/>
@@ -7933,7 +7931,7 @@
         <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I18" s="92" t="s">
         <v>7</v>
@@ -7944,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>9</v>
@@ -7952,13 +7950,13 @@
       <c r="D19" s="4"/>
       <c r="E19" s="9"/>
       <c r="F19" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="G19" s="16" t="s">
-        <v>456</v>
-      </c>
       <c r="H19" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I19" s="28"/>
     </row>
@@ -7968,7 +7966,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>9</v>
@@ -7976,13 +7974,13 @@
       <c r="D20" s="4"/>
       <c r="E20" s="9"/>
       <c r="F20" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="G20" s="16" t="s">
-        <v>459</v>
-      </c>
       <c r="H20" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I20" s="28"/>
     </row>
@@ -7992,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>9</v>
@@ -8000,13 +7998,13 @@
       <c r="D21" s="4"/>
       <c r="E21" s="9"/>
       <c r="F21" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>462</v>
-      </c>
       <c r="H21" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I21" s="28"/>
     </row>
@@ -8016,7 +8014,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>9</v>
@@ -8024,13 +8022,13 @@
       <c r="D22" s="4"/>
       <c r="E22" s="9"/>
       <c r="F22" s="16" t="s">
+        <v>463</v>
+      </c>
+      <c r="G22" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="G22" s="16" t="s">
-        <v>465</v>
-      </c>
       <c r="H22" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I22" s="28"/>
       <c r="J22" s="47"/>
@@ -8050,7 +8048,7 @@
     <row r="24" spans="1:10" ht="18.75" thickBot="1">
       <c r="A24" s="45"/>
       <c r="B24" s="48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C24" s="39"/>
       <c r="D24" s="40"/>
@@ -8084,7 +8082,7 @@
         <v>6</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>7</v>
@@ -8096,26 +8094,26 @@
         <v>1</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J26" s="47"/>
     </row>
@@ -8125,26 +8123,26 @@
         <v>2</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C27" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F27" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I27" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J27" s="47"/>
     </row>
@@ -8154,26 +8152,26 @@
         <v>3</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I28" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J28" s="47"/>
     </row>
@@ -8183,26 +8181,26 @@
         <v>4</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I29" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J29" s="47"/>
     </row>
@@ -8212,26 +8210,26 @@
         <v>5</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C30" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H30" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I30" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J30" s="47"/>
     </row>
@@ -8241,26 +8239,26 @@
         <v>6</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H31" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I31" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J31" s="47"/>
     </row>
@@ -8270,26 +8268,26 @@
         <v>7</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H32" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I32" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J32" s="47"/>
     </row>
@@ -8299,26 +8297,26 @@
         <v>8</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H33" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I33" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J33" s="47"/>
     </row>
@@ -8328,26 +8326,26 @@
         <v>9</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H34" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I34" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J34" s="47"/>
     </row>
@@ -8357,26 +8355,26 @@
         <v>10</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H35" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I35" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J35" s="47"/>
     </row>
@@ -8386,26 +8384,26 @@
         <v>11</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H36" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J36" s="47"/>
     </row>
@@ -8415,26 +8413,26 @@
         <v>12</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H37" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I37" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J37" s="47"/>
     </row>
@@ -8444,26 +8442,26 @@
         <v>13</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H38" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I38" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J38" s="47"/>
     </row>
@@ -8473,26 +8471,26 @@
         <v>14</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="F39" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>392</v>
-      </c>
       <c r="G39" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H39" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I39" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J39" s="47"/>
     </row>
@@ -8510,7 +8508,7 @@
     </row>
     <row r="41" spans="1:10" ht="36.75" thickBot="1">
       <c r="B41" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="39" thickBot="1">
@@ -8536,7 +8534,7 @@
         <v>6</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>7</v>
@@ -8547,7 +8545,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>9</v>
@@ -8555,13 +8553,13 @@
       <c r="D43" s="4"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I43" s="28"/>
     </row>
@@ -8571,23 +8569,23 @@
         <v>2</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D44" s="14"/>
       <c r="E44" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="F44" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="G44" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H44" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I44" s="28"/>
     </row>
@@ -8597,23 +8595,23 @@
         <v>3</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="14"/>
       <c r="E45" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="F45" s="16" t="s">
-        <v>93</v>
-      </c>
       <c r="G45" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H45" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I45" s="28"/>
     </row>
@@ -8623,23 +8621,23 @@
         <v>4</v>
       </c>
       <c r="B46" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>87</v>
-      </c>
       <c r="G46" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H46" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I46" s="28"/>
     </row>
@@ -8649,26 +8647,26 @@
         <v>5</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F47" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="15" t="s">
-        <v>97</v>
-      </c>
       <c r="H47" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I47" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="90.75" thickBot="1">
@@ -8677,26 +8675,26 @@
         <v>6</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H48" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I48" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="90.75" thickBot="1">
@@ -8705,26 +8703,26 @@
         <v>7</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H49" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I49" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="90.75" thickBot="1">
@@ -8733,26 +8731,26 @@
         <v>8</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H50" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I50" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="105.75" thickBot="1">
@@ -8761,26 +8759,26 @@
         <v>9</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C51" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H51" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I51" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45.75" thickBot="1">
@@ -8789,23 +8787,23 @@
         <v>10</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="G52" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I52" s="28"/>
     </row>
@@ -8815,7 +8813,7 @@
         <v>11</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>9</v>
@@ -8823,20 +8821,20 @@
       <c r="D53" s="4"/>
       <c r="E53" s="15"/>
       <c r="F53" s="16" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H53" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" ht="30.75" thickBot="1">
       <c r="A54" s="5"/>
       <c r="B54" s="15" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>9</v>
@@ -8844,13 +8842,13 @@
       <c r="D54" s="4"/>
       <c r="E54" s="15"/>
       <c r="F54" s="16" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H54" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I54" s="28"/>
     </row>
@@ -8860,26 +8858,26 @@
         <v>12</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C55" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="16" t="s">
+        <v>680</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>681</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>682</v>
-      </c>
       <c r="H55" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I55" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="105.75" thickBot="1">
@@ -8888,26 +8886,26 @@
         <v>13</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H56" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I56" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="105.75" thickBot="1">
@@ -8916,26 +8914,26 @@
         <v>14</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H57" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I57" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="105.75" thickBot="1">
@@ -8944,26 +8942,26 @@
         <v>15</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H58" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I58" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="120.75" thickBot="1">
@@ -8972,26 +8970,26 @@
         <v>16</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H59" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I59" s="36" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="45.75" thickBot="1">
@@ -9000,23 +8998,23 @@
         <v>17</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>69</v>
-      </c>
       <c r="G60" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H60" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I60" s="17"/>
     </row>
@@ -9026,7 +9024,7 @@
     <row r="62" spans="1:9" ht="47.25" thickBot="1">
       <c r="A62" s="44"/>
       <c r="B62" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="39" thickBot="1">
@@ -9052,7 +9050,7 @@
         <v>6</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>7</v>
@@ -9063,25 +9061,25 @@
         <v>1</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G64" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E64" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G64" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="H64" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I64" s="17"/>
     </row>
@@ -9091,25 +9089,25 @@
         <v>2</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G65" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="G65" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="H65" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" s="17"/>
     </row>
@@ -9119,25 +9117,25 @@
         <v>3</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D66" s="16" t="s">
+      <c r="F66" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="G66" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E66" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="F66" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="G66" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="H66" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I66" s="17"/>
     </row>
@@ -9147,7 +9145,7 @@
         <v>4</v>
       </c>
       <c r="B67" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>9</v>
@@ -9155,13 +9153,13 @@
       <c r="D67" s="14"/>
       <c r="E67" s="16"/>
       <c r="F67" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H67" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I67" s="17"/>
     </row>
@@ -9171,7 +9169,7 @@
         <v>5</v>
       </c>
       <c r="B68" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>9</v>
@@ -9179,13 +9177,13 @@
       <c r="D68" s="14"/>
       <c r="E68" s="16"/>
       <c r="F68" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G68" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H68" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I68" s="17"/>
     </row>
@@ -9195,7 +9193,7 @@
         <v>6</v>
       </c>
       <c r="B69" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>9</v>
@@ -9203,13 +9201,13 @@
       <c r="D69" s="14"/>
       <c r="E69" s="16"/>
       <c r="F69" s="16" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G69" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H69" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I69" s="17"/>
     </row>
@@ -9219,7 +9217,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>9</v>
@@ -9227,13 +9225,13 @@
       <c r="D70" s="14"/>
       <c r="E70" s="16"/>
       <c r="F70" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="G70" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="G70" s="16" t="s">
-        <v>508</v>
-      </c>
       <c r="H70" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I70" s="17"/>
     </row>
@@ -9243,7 +9241,7 @@
         <v>8</v>
       </c>
       <c r="B71" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>9</v>
@@ -9251,13 +9249,13 @@
       <c r="D71" s="14"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16" t="s">
+        <v>447</v>
+      </c>
+      <c r="G71" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="G71" s="16" t="s">
-        <v>449</v>
-      </c>
       <c r="H71" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I71" s="17"/>
     </row>
@@ -9267,7 +9265,7 @@
         <v>9</v>
       </c>
       <c r="B72" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>9</v>
@@ -9275,13 +9273,13 @@
       <c r="D72" s="14"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16" t="s">
+        <v>450</v>
+      </c>
+      <c r="G72" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="G72" s="16" t="s">
-        <v>452</v>
-      </c>
       <c r="H72" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I72" s="17"/>
     </row>
@@ -9291,26 +9289,26 @@
         <v>10</v>
       </c>
       <c r="B73" s="16" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="14"/>
       <c r="E73" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F73" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="G73" s="15" t="s">
         <v>483</v>
       </c>
-      <c r="G73" s="15" t="s">
-        <v>484</v>
-      </c>
       <c r="H73" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I73" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="225.75" thickBot="1">
@@ -9319,26 +9317,26 @@
         <v>11</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="14"/>
       <c r="E74" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="F74" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="F74" s="16" t="s">
-        <v>487</v>
-      </c>
       <c r="G74" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H74" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I74" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="270.75" thickBot="1">
@@ -9347,26 +9345,26 @@
         <v>12</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="14"/>
       <c r="E75" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="F75" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="F75" s="16" t="s">
-        <v>489</v>
-      </c>
       <c r="G75" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H75" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I75" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="225.75" thickBot="1">
@@ -9375,26 +9373,26 @@
         <v>13</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H76" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I76" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="225.75" thickBot="1">
@@ -9403,26 +9401,26 @@
         <v>14</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H77" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I77" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="225.75" thickBot="1">
@@ -9431,26 +9429,26 @@
         <v>15</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H78" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I78" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="45.75" thickBot="1">
@@ -9459,7 +9457,7 @@
         <v>16</v>
       </c>
       <c r="B79" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>9</v>
@@ -9467,16 +9465,16 @@
       <c r="D79" s="14"/>
       <c r="E79" s="16"/>
       <c r="F79" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G79" s="16" t="s">
+        <v>492</v>
+      </c>
+      <c r="H79" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="I79" s="17" t="s">
         <v>155</v>
-      </c>
-      <c r="G79" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>243</v>
-      </c>
-      <c r="I79" s="17" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="225.75" thickBot="1">
@@ -9485,26 +9483,26 @@
         <v>17</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="14"/>
       <c r="E80" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F80" s="16" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H80" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I80" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="225.75" thickBot="1">
@@ -9513,26 +9511,26 @@
         <v>18</v>
       </c>
       <c r="B81" s="16" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="14"/>
       <c r="E81" s="16" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F81" s="16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H81" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I81" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="225.75" thickBot="1">
@@ -9541,26 +9539,26 @@
         <v>19</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="14"/>
       <c r="E82" s="16" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H82" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I82" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="225.75" thickBot="1">
@@ -9569,26 +9567,26 @@
         <v>20</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H83" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I83" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="225.75" thickBot="1">
@@ -9597,26 +9595,26 @@
         <v>21</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F84" s="15" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G84" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H84" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I84" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="225.75" thickBot="1">
@@ -9625,26 +9623,26 @@
         <v>22</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H85" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I85" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="60.75" thickBot="1">
@@ -9653,23 +9651,23 @@
         <v>23</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="F86" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="G86" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="G86" s="15" t="s">
-        <v>503</v>
-      </c>
       <c r="H86" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I86" s="49"/>
     </row>
@@ -9679,7 +9677,7 @@
         <v>24</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C87" s="17" t="s">
         <v>9</v>
@@ -9687,13 +9685,13 @@
       <c r="D87" s="4"/>
       <c r="E87" s="15"/>
       <c r="F87" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="G87" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>505</v>
-      </c>
       <c r="H87" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I87" s="49"/>
     </row>
@@ -9703,26 +9701,26 @@
         <v>25</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="14"/>
       <c r="E88" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F88" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="G88" s="16" t="s">
-        <v>159</v>
-      </c>
       <c r="H88" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I88" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="225.75" thickBot="1">
@@ -9731,26 +9729,26 @@
         <v>26</v>
       </c>
       <c r="B89" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="14"/>
       <c r="E89" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F89" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G89" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H89" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I89" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="225.75" thickBot="1">
@@ -9759,26 +9757,26 @@
         <v>27</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="14"/>
       <c r="E90" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F90" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="F90" s="16" t="s">
-        <v>163</v>
-      </c>
       <c r="G90" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H90" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I90" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="225.75" thickBot="1">
@@ -9787,26 +9785,26 @@
         <v>28</v>
       </c>
       <c r="B91" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="14"/>
       <c r="E91" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="F91" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="F91" s="16" t="s">
-        <v>169</v>
-      </c>
       <c r="G91" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I91" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="225.75" thickBot="1">
@@ -9815,26 +9813,26 @@
         <v>29</v>
       </c>
       <c r="B92" s="16" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="14"/>
       <c r="E92" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G92" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="F92" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G92" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="H92" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I92" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="225.75" thickBot="1">
@@ -9843,26 +9841,26 @@
         <v>30</v>
       </c>
       <c r="B93" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="14"/>
       <c r="E93" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="F93" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="F93" s="16" t="s">
-        <v>176</v>
-      </c>
       <c r="G93" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I93" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="225.75" thickBot="1">
@@ -9871,26 +9869,26 @@
         <v>31</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="14"/>
       <c r="E94" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="F94" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="F94" s="16" t="s">
-        <v>179</v>
-      </c>
       <c r="G94" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H94" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I94" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="225.75" thickBot="1">
@@ -9899,26 +9897,26 @@
         <v>32</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="14"/>
       <c r="E95" s="16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F95" s="16" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G95" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H95" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I95" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="225.75" thickBot="1">
@@ -9927,26 +9925,26 @@
         <v>33</v>
       </c>
       <c r="B96" s="16" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="14"/>
       <c r="E96" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="F96" s="16" t="s">
-        <v>420</v>
-      </c>
       <c r="G96" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H96" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I96" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="225.75" thickBot="1">
@@ -9955,26 +9953,26 @@
         <v>34</v>
       </c>
       <c r="B97" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="14"/>
       <c r="E97" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F97" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="F97" s="16" t="s">
-        <v>182</v>
-      </c>
       <c r="G97" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H97" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I97" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="225.75" thickBot="1">
@@ -9983,26 +9981,26 @@
         <v>35</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="14"/>
       <c r="E98" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F98" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G98" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H98" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I98" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="225.75" thickBot="1">
@@ -10011,26 +10009,26 @@
         <v>36</v>
       </c>
       <c r="B99" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="14"/>
       <c r="E99" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F99" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G99" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H99" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I99" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="225.75" thickBot="1">
@@ -10039,26 +10037,26 @@
         <v>37</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="14"/>
       <c r="E100" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="F100" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="F100" s="16" t="s">
-        <v>191</v>
-      </c>
       <c r="G100" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H100" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I100" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="225.75" thickBot="1">
@@ -10067,26 +10065,26 @@
         <v>38</v>
       </c>
       <c r="B101" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="14"/>
       <c r="E101" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="F101" s="16" t="s">
-        <v>216</v>
-      </c>
       <c r="G101" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H101" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I101" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="45.75" thickBot="1">
@@ -10095,7 +10093,7 @@
         <v>39</v>
       </c>
       <c r="B102" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>9</v>
@@ -10103,13 +10101,13 @@
       <c r="D102" s="14"/>
       <c r="E102" s="16"/>
       <c r="F102" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G102" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G102" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="H102" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I102" s="18"/>
     </row>
@@ -10119,26 +10117,26 @@
         <v>40</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="14"/>
       <c r="E103" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F103" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G103" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H103" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I103" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="225.75" thickBot="1">
@@ -10147,82 +10145,82 @@
         <v>41</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C104" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="14"/>
       <c r="E104" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F104" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H104" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I104" s="37" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" ht="270.75" thickBot="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="225.75" thickBot="1">
       <c r="A105" s="5">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="14"/>
       <c r="E105" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F105" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G105" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H105" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I105" s="37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="270.75" thickBot="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="225.75" thickBot="1">
       <c r="A106" s="5">
         <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="14"/>
       <c r="E106" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F106" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G106" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I106" s="37" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="270.75" thickBot="1">
@@ -10231,26 +10229,26 @@
         <v>44</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C107" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="14"/>
       <c r="E107" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="F107" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="F107" s="16" t="s">
-        <v>201</v>
-      </c>
       <c r="G107" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I107" s="37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="270.75" thickBot="1">
@@ -10259,54 +10257,54 @@
         <v>45</v>
       </c>
       <c r="B108" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C108" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="14"/>
       <c r="E108" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F108" s="16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G108" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I108" s="37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="270.75" thickBot="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="225.75" thickBot="1">
       <c r="A109" s="5">
         <f t="shared" si="3"/>
         <v>46</v>
       </c>
       <c r="B109" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="14"/>
       <c r="E109" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F109" s="16" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G109" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I109" s="37" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="270.75" thickBot="1">
@@ -10315,54 +10313,54 @@
         <v>47</v>
       </c>
       <c r="B110" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="14"/>
       <c r="E110" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F110" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="F110" s="16" t="s">
-        <v>423</v>
-      </c>
       <c r="G110" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H110" s="27" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="I110" s="37" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" ht="270.75" thickBot="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="225.75" thickBot="1">
       <c r="A111" s="5">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
       <c r="B111" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C111" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="14"/>
       <c r="E111" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F111" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="F111" s="16" t="s">
-        <v>426</v>
-      </c>
       <c r="G111" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111" s="27" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="I111" s="37" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="225.75" thickBot="1">
@@ -10371,26 +10369,26 @@
         <v>49</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="14"/>
       <c r="E112" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="F112" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="F112" s="16" t="s">
-        <v>429</v>
-      </c>
       <c r="G112" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H112" s="27" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="I112" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="45.75" thickBot="1">
@@ -10399,7 +10397,7 @@
         <v>50</v>
       </c>
       <c r="B113" s="16" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>9</v>
@@ -10407,13 +10405,13 @@
       <c r="D113" s="14"/>
       <c r="E113" s="16"/>
       <c r="F113" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="G113" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="G113" s="15" t="s">
-        <v>208</v>
-      </c>
       <c r="H113" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I113" s="18"/>
     </row>
@@ -10423,26 +10421,26 @@
         <v>51</v>
       </c>
       <c r="B114" s="16" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="14"/>
       <c r="E114" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F114" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="G114" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="G114" s="16" t="s">
-        <v>210</v>
-      </c>
       <c r="H114" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I114" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="225.75" thickBot="1">
@@ -10451,26 +10449,26 @@
         <v>52</v>
       </c>
       <c r="B115" s="16" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="14"/>
       <c r="E115" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F115" s="16" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G115" s="16" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H115" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I115" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="225.75" thickBot="1">
@@ -10479,26 +10477,26 @@
         <v>53</v>
       </c>
       <c r="B116" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="14"/>
       <c r="E116" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F116" s="16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G116" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H116" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I116" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="225.75" thickBot="1">
@@ -10507,26 +10505,26 @@
         <v>54</v>
       </c>
       <c r="B117" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C117" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="14"/>
       <c r="E117" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G117" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H117" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I117" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="225.75" thickBot="1">
@@ -10535,26 +10533,26 @@
         <v>55</v>
       </c>
       <c r="B118" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C118" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="14"/>
       <c r="E118" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F118" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G118" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H118" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I118" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="225.75" thickBot="1">
@@ -10563,26 +10561,26 @@
         <v>56</v>
       </c>
       <c r="B119" s="16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C119" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="14"/>
       <c r="E119" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F119" s="16" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G119" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H119" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I119" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="225.75" thickBot="1">
@@ -10591,26 +10589,26 @@
         <v>57</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C120" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="14"/>
       <c r="E120" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="G120" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="F120" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="G120" s="15" t="s">
-        <v>171</v>
-      </c>
       <c r="H120" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I120" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="225.75" thickBot="1">
@@ -10619,26 +10617,26 @@
         <v>58</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C121" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="14"/>
       <c r="E121" s="16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F121" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H121" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I121" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="225.75" thickBot="1">
@@ -10647,26 +10645,26 @@
         <v>59</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C122" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="14"/>
       <c r="E122" s="16" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F122" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G122" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H122" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I122" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="225.75" thickBot="1">
@@ -10675,26 +10673,26 @@
         <v>60</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C123" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="14"/>
       <c r="E123" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="F123" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="F123" s="16" t="s">
-        <v>434</v>
-      </c>
       <c r="G123" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H123" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I123" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="225.75" thickBot="1">
@@ -10703,26 +10701,26 @@
         <v>61</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C124" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="14"/>
       <c r="E124" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F124" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H124" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I124" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="225.75" thickBot="1">
@@ -10731,26 +10729,26 @@
         <v>62</v>
       </c>
       <c r="B125" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C125" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="14"/>
       <c r="E125" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F125" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H125" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I125" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="225.75" thickBot="1">
@@ -10759,26 +10757,26 @@
         <v>63</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C126" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="14"/>
       <c r="E126" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F126" s="16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H126" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I126" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="225.75" thickBot="1">
@@ -10787,26 +10785,26 @@
         <v>64</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="14"/>
       <c r="E127" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F127" s="16" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H127" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I127" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="225.75" thickBot="1">
@@ -10815,26 +10813,26 @@
         <v>65</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="14"/>
       <c r="E128" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F128" s="16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H128" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I128" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="225.75" thickBot="1">
@@ -10843,7 +10841,7 @@
         <v>66</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>9</v>
@@ -10852,19 +10850,19 @@
         <v>1</v>
       </c>
       <c r="E129" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F129" s="16" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H129" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I129" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="45.75" thickBot="1">
@@ -10873,7 +10871,7 @@
         <v>67</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>9</v>
@@ -10881,13 +10879,13 @@
       <c r="D130" s="14"/>
       <c r="E130" s="16"/>
       <c r="F130" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="G130" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="G130" s="15" t="s">
-        <v>219</v>
-      </c>
       <c r="H130" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I130" s="18"/>
     </row>
@@ -10897,26 +10895,26 @@
         <v>68</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C131" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="14"/>
       <c r="E131" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F131" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H131" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I131" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="225.75" thickBot="1">
@@ -10925,26 +10923,26 @@
         <v>69</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="14"/>
       <c r="E132" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F132" s="16" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G132" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H132" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I132" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="225.75" thickBot="1">
@@ -10953,26 +10951,26 @@
         <v>70</v>
       </c>
       <c r="B133" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="14"/>
       <c r="E133" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F133" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G133" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H133" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I133" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="225.75" thickBot="1">
@@ -10981,26 +10979,26 @@
         <v>71</v>
       </c>
       <c r="B134" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C134" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="14"/>
       <c r="E134" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F134" s="16" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G134" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H134" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I134" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="225.75" thickBot="1">
@@ -11009,26 +11007,26 @@
         <v>72</v>
       </c>
       <c r="B135" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C135" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="14"/>
       <c r="E135" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F135" s="16" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G135" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H135" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I135" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="225.75" thickBot="1">
@@ -11037,26 +11035,26 @@
         <v>73</v>
       </c>
       <c r="B136" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C136" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="14"/>
       <c r="E136" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F136" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G136" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H136" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I136" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="225.75" thickBot="1">
@@ -11065,26 +11063,26 @@
         <v>74</v>
       </c>
       <c r="B137" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C137" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="14"/>
       <c r="E137" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F137" s="16" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G137" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H137" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I137" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="225.75" thickBot="1">
@@ -11093,26 +11091,26 @@
         <v>75</v>
       </c>
       <c r="B138" s="16" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C138" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="14"/>
       <c r="E138" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F138" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G138" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H138" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I138" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="225.75" thickBot="1">
@@ -11121,26 +11119,26 @@
         <v>76</v>
       </c>
       <c r="B139" s="16" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C139" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="14"/>
       <c r="E139" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F139" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="F139" s="16" t="s">
-        <v>423</v>
-      </c>
       <c r="G139" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H139" s="27" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="I139" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="225.75" thickBot="1">
@@ -11149,54 +11147,54 @@
         <v>77</v>
       </c>
       <c r="B140" s="16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C140" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="14"/>
       <c r="E140" s="16" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F140" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G140" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H140" s="27" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="I140" s="37" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="270.75" thickBot="1">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="225.75" thickBot="1">
       <c r="A141" s="5">
         <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B141" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C141" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="14"/>
       <c r="E141" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F141" s="16" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G141" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H141" s="27" t="s">
-        <v>243</v>
+        <v>697</v>
       </c>
       <c r="I141" s="37" t="s">
-        <v>414</v>
+        <v>683</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -11213,7 +11211,7 @@
     <row r="143" spans="1:9" ht="47.25" thickBot="1">
       <c r="A143" s="44"/>
       <c r="B143" s="34" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="39" thickBot="1">
@@ -11239,7 +11237,7 @@
         <v>6</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I144" s="6" t="s">
         <v>7</v>
@@ -11250,25 +11248,25 @@
         <v>1</v>
       </c>
       <c r="B145" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G145" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E145" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="F145" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="G145" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="H145" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I145" s="17"/>
     </row>
@@ -11278,25 +11276,25 @@
         <v>2</v>
       </c>
       <c r="B146" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E146" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="16" t="s">
+      <c r="F146" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="G146" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E146" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F146" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="G146" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="H146" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I146" s="17"/>
     </row>
@@ -11306,25 +11304,25 @@
         <v>3</v>
       </c>
       <c r="B147" s="16" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G147" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E147" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="F147" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="G147" s="16" t="s">
-        <v>127</v>
-      </c>
       <c r="H147" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I147" s="17"/>
     </row>
@@ -11334,7 +11332,7 @@
         <v>4</v>
       </c>
       <c r="B148" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>9</v>
@@ -11342,13 +11340,13 @@
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
       <c r="F148" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G148" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H148" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I148" s="17"/>
     </row>
@@ -11358,7 +11356,7 @@
         <v>5</v>
       </c>
       <c r="B149" s="16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C149" s="5" t="s">
         <v>9</v>
@@ -11366,13 +11364,13 @@
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
       <c r="F149" s="16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G149" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H149" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I149" s="17"/>
     </row>
@@ -11382,7 +11380,7 @@
         <v>6</v>
       </c>
       <c r="B150" s="16" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C150" s="5" t="s">
         <v>9</v>
@@ -11390,13 +11388,13 @@
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
       <c r="F150" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G150" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H150" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I150" s="17"/>
     </row>
@@ -11406,7 +11404,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C151" s="5" t="s">
         <v>9</v>
@@ -11414,13 +11412,13 @@
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
       <c r="F151" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G151" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H151" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I151" s="17"/>
     </row>
@@ -11430,7 +11428,7 @@
         <v>8</v>
       </c>
       <c r="B152" s="16" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C152" s="5" t="s">
         <v>9</v>
@@ -11438,13 +11436,13 @@
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
       <c r="F152" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="G152" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="G152" s="15" t="s">
-        <v>447</v>
-      </c>
       <c r="H152" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I152" s="17"/>
     </row>
@@ -11454,7 +11452,7 @@
         <v>9</v>
       </c>
       <c r="B153" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C153" s="5" t="s">
         <v>9</v>
@@ -11462,13 +11460,13 @@
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
       <c r="F153" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H153" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I153" s="17"/>
     </row>
@@ -11478,7 +11476,7 @@
         <v>10</v>
       </c>
       <c r="B154" s="16" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C154" s="5" t="s">
         <v>9</v>
@@ -11486,13 +11484,13 @@
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
       <c r="F154" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G154" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="G154" s="15" t="s">
-        <v>260</v>
-      </c>
       <c r="H154" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I154" s="17"/>
     </row>
@@ -11502,7 +11500,7 @@
         <v>11</v>
       </c>
       <c r="B155" s="16" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C155" s="5" t="s">
         <v>9</v>
@@ -11510,13 +11508,13 @@
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
       <c r="F155" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="G155" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="G155" s="15" t="s">
-        <v>263</v>
-      </c>
       <c r="H155" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I155" s="17"/>
     </row>
@@ -11526,25 +11524,25 @@
         <v>12</v>
       </c>
       <c r="B156" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C156" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="E156" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="E156" s="16" t="s">
-        <v>440</v>
-      </c>
       <c r="F156" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G156" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H156" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I156" s="17"/>
     </row>
@@ -11554,25 +11552,25 @@
         <v>13</v>
       </c>
       <c r="B157" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C157" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>439</v>
-      </c>
       <c r="E157" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F157" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="G157" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="G157" s="16" t="s">
-        <v>444</v>
-      </c>
       <c r="H157" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I157" s="17"/>
     </row>
@@ -11582,7 +11580,7 @@
         <v>14</v>
       </c>
       <c r="B158" s="16" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C158" s="5" t="s">
         <v>9</v>
@@ -11590,13 +11588,13 @@
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
       <c r="F158" s="16" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G158" s="16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H158" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I158" s="17"/>
     </row>
@@ -11606,7 +11604,7 @@
         <v>15</v>
       </c>
       <c r="B159" s="16" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C159" s="5" t="s">
         <v>9</v>
@@ -11614,13 +11612,13 @@
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
       <c r="F159" s="16" t="s">
+        <v>547</v>
+      </c>
+      <c r="G159" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="G159" s="16" t="s">
-        <v>549</v>
-      </c>
       <c r="H159" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I159" s="17"/>
     </row>
@@ -11630,7 +11628,7 @@
         <v>16</v>
       </c>
       <c r="B160" s="16" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C160" s="5" t="s">
         <v>9</v>
@@ -11638,13 +11636,13 @@
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
       <c r="F160" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G160" s="16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H160" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I160" s="17"/>
     </row>
@@ -11655,11 +11653,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J61"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11676,13 +11674,13 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25">
       <c r="B1" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" s="38"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
       <c r="B2" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C2" s="38"/>
     </row>
@@ -11709,7 +11707,7 @@
         <v>6</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>7</v>
@@ -11720,23 +11718,23 @@
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>269</v>
-      </c>
       <c r="H4" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4" s="28"/>
     </row>
@@ -11746,7 +11744,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -11754,13 +11752,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5" s="28"/>
     </row>
@@ -11770,7 +11768,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>9</v>
@@ -11778,13 +11776,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I6" s="28"/>
     </row>
@@ -11794,7 +11792,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -11802,13 +11800,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>527</v>
-      </c>
       <c r="H7" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I7" s="28"/>
     </row>
@@ -11818,7 +11816,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>9</v>
@@ -11826,13 +11824,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>529</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>530</v>
-      </c>
       <c r="H8" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I8" s="28"/>
     </row>
@@ -11842,7 +11840,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>9</v>
@@ -11850,13 +11848,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>540</v>
-      </c>
       <c r="H9" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I9" s="28"/>
     </row>
@@ -11866,7 +11864,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>9</v>
@@ -11874,13 +11872,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>533</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>534</v>
-      </c>
       <c r="H10" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I10" s="28"/>
     </row>
@@ -11890,7 +11888,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -11898,13 +11896,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>536</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>537</v>
-      </c>
       <c r="H11" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I11" s="28"/>
     </row>
@@ -11914,7 +11912,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>9</v>
@@ -11922,13 +11920,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>543</v>
-      </c>
       <c r="H12" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="28"/>
     </row>
@@ -11938,7 +11936,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>9</v>
@@ -11946,13 +11944,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="H13" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I13" s="28"/>
     </row>
@@ -11962,7 +11960,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>9</v>
@@ -11970,13 +11968,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>553</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>554</v>
-      </c>
       <c r="H14" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I14" s="28"/>
     </row>
@@ -11986,7 +11984,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>9</v>
@@ -11994,13 +11992,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>557</v>
-      </c>
       <c r="H15" s="27" t="s">
-        <v>243</v>
+        <v>648</v>
       </c>
       <c r="I15" s="28"/>
     </row>
@@ -12010,7 +12008,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>9</v>
@@ -12018,13 +12016,13 @@
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>560</v>
-      </c>
       <c r="H16" s="27" t="s">
-        <v>243</v>
+        <v>648</v>
       </c>
       <c r="I16" s="28"/>
     </row>
@@ -12034,7 +12032,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -12042,13 +12040,13 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="H17" s="27" t="s">
-        <v>243</v>
+        <v>648</v>
       </c>
       <c r="I17" s="28"/>
     </row>
@@ -12058,7 +12056,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>9</v>
@@ -12066,22 +12064,22 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="H18" s="27" t="s">
-        <v>243</v>
+        <v>648</v>
       </c>
       <c r="I18" s="28"/>
     </row>
     <row r="20" spans="1:9" ht="47.25" thickBot="1">
       <c r="B20" s="60" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="26.25" thickBot="1">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="39" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -12104,7 +12102,7 @@
         <v>6</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>7</v>
@@ -12115,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>9</v>
@@ -12123,13 +12121,13 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>569</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>570</v>
-      </c>
       <c r="H22" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I22" s="28"/>
     </row>
@@ -12139,7 +12137,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -12147,13 +12145,13 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>556</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>557</v>
-      </c>
       <c r="H23" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I23" s="28"/>
     </row>
@@ -12163,7 +12161,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>9</v>
@@ -12171,13 +12169,13 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>559</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>560</v>
-      </c>
       <c r="H24" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I24" s="28"/>
     </row>
@@ -12187,7 +12185,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
@@ -12195,13 +12193,13 @@
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>563</v>
-      </c>
       <c r="H25" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I25" s="28"/>
     </row>
@@ -12211,7 +12209,7 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>9</v>
@@ -12219,22 +12217,22 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>565</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>566</v>
-      </c>
       <c r="H26" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I26" s="28"/>
     </row>
     <row r="28" spans="1:9" ht="24" thickBot="1">
       <c r="B28" s="13" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="26.25" thickBot="1">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="39" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>0</v>
       </c>
@@ -12257,7 +12255,7 @@
         <v>6</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>7</v>
@@ -12268,7 +12266,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>9</v>
@@ -12276,13 +12274,13 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>574</v>
-      </c>
       <c r="H30" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I30" s="28"/>
     </row>
@@ -12292,7 +12290,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -12300,13 +12298,13 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>577</v>
-      </c>
       <c r="H31" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I31" s="28"/>
     </row>
@@ -12316,7 +12314,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
@@ -12324,13 +12322,13 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>580</v>
-      </c>
       <c r="H32" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I32" s="28"/>
     </row>
@@ -12340,7 +12338,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -12348,13 +12346,13 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>583</v>
-      </c>
       <c r="H33" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I33" s="28"/>
     </row>
@@ -12364,7 +12362,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
@@ -12372,13 +12370,13 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>585</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>586</v>
-      </c>
       <c r="H34" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I34" s="28"/>
     </row>
@@ -12388,7 +12386,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="52" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C35" s="33" t="s">
         <v>9</v>
@@ -12396,13 +12394,13 @@
       <c r="D35" s="52"/>
       <c r="E35" s="52"/>
       <c r="F35" s="52" t="s">
+        <v>584</v>
+      </c>
+      <c r="G35" s="52" t="s">
         <v>585</v>
       </c>
-      <c r="G35" s="52" t="s">
-        <v>586</v>
-      </c>
       <c r="H35" s="53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I35" s="54"/>
     </row>
@@ -12412,7 +12410,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C36" s="56" t="s">
         <v>9</v>
@@ -12420,13 +12418,13 @@
       <c r="D36" s="57"/>
       <c r="E36" s="57"/>
       <c r="F36" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="G36" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="G36" s="57" t="s">
-        <v>589</v>
-      </c>
       <c r="H36" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I36" s="28"/>
     </row>
@@ -12436,7 +12434,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C37" s="56" t="s">
         <v>9</v>
@@ -12444,13 +12442,13 @@
       <c r="D37" s="57"/>
       <c r="E37" s="57"/>
       <c r="F37" s="57" t="s">
+        <v>590</v>
+      </c>
+      <c r="G37" s="57" t="s">
         <v>591</v>
       </c>
-      <c r="G37" s="57" t="s">
-        <v>592</v>
-      </c>
       <c r="H37" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I37" s="28"/>
       <c r="J37" s="12"/>
@@ -12470,7 +12468,7 @@
     <row r="39" spans="1:10" ht="24" thickBot="1">
       <c r="A39" s="45"/>
       <c r="B39" s="61" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C39" s="45"/>
       <c r="D39" s="50"/>
@@ -12480,7 +12478,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
     </row>
-    <row r="40" spans="1:10" ht="26.25" thickBot="1">
+    <row r="40" spans="1:10" ht="39" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>0</v>
       </c>
@@ -12503,7 +12501,7 @@
         <v>6</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>7</v>
@@ -12514,26 +12512,26 @@
         <v>1</v>
       </c>
       <c r="B41" s="22" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H41" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I41" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="204.75" thickBot="1">
@@ -12542,26 +12540,26 @@
         <v>2</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="G42" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="F42" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>598</v>
-      </c>
       <c r="H42" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I42" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="204.75" thickBot="1">
@@ -12570,26 +12568,26 @@
         <v>3</v>
       </c>
       <c r="B43" s="22" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H43" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="143.25" thickBot="1">
@@ -12598,26 +12596,26 @@
         <v>4</v>
       </c>
       <c r="B44" s="22" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="G44" s="15" t="s">
-        <v>606</v>
-      </c>
       <c r="H44" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I44" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="204.75" thickBot="1">
@@ -12626,26 +12624,26 @@
         <v>5</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I45" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="204.75" thickBot="1">
@@ -12654,26 +12652,26 @@
         <v>6</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H46" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I46" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="204.75" thickBot="1">
@@ -12682,26 +12680,26 @@
         <v>7</v>
       </c>
       <c r="B47" s="22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H47" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I47" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="217.5" thickBot="1">
@@ -12710,26 +12708,26 @@
         <v>8</v>
       </c>
       <c r="B48" s="22" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I48" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="217.5" thickBot="1">
@@ -12738,26 +12736,26 @@
         <v>9</v>
       </c>
       <c r="B49" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H49" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I49" s="58" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="30.75" thickBot="1">
@@ -12766,7 +12764,7 @@
         <v>10</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>9</v>
@@ -12774,22 +12772,22 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="G50" s="15" t="s">
         <v>622</v>
       </c>
-      <c r="G50" s="15" t="s">
-        <v>623</v>
-      </c>
       <c r="H50" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I50" s="59"/>
     </row>
     <row r="52" spans="1:9" ht="47.25" thickBot="1">
       <c r="B52" s="34" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="26.25" thickBot="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="39" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>0</v>
       </c>
@@ -12812,7 +12810,7 @@
         <v>6</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>7</v>
@@ -12823,25 +12821,25 @@
         <v>1</v>
       </c>
       <c r="B54" s="22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="F54" s="7" t="s">
         <v>625</v>
       </c>
-      <c r="E54" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="F54" s="7" t="s">
+      <c r="G54" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="G54" s="15" t="s">
-        <v>627</v>
-      </c>
       <c r="H54" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I54" s="59"/>
     </row>
@@ -12851,7 +12849,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="22" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>9</v>
@@ -12859,13 +12857,13 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G55" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="G55" s="15" t="s">
-        <v>631</v>
-      </c>
       <c r="H55" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I55" s="59"/>
     </row>
@@ -12875,23 +12873,23 @@
         <v>3</v>
       </c>
       <c r="B56" s="22" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="F56" s="7" t="s">
         <v>633</v>
       </c>
-      <c r="F56" s="7" t="s">
-        <v>634</v>
-      </c>
       <c r="G56" s="15" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H56" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I56" s="59"/>
     </row>
@@ -12901,7 +12899,7 @@
         <v>4</v>
       </c>
       <c r="B57" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>9</v>
@@ -12909,22 +12907,22 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G57" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="G57" s="15" t="s">
-        <v>637</v>
-      </c>
       <c r="H57" s="51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I57" s="59"/>
     </row>
     <row r="59" spans="1:9" ht="53.25" thickBot="1">
       <c r="B59" s="97" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="26.25" thickBot="1">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="39" thickBot="1">
       <c r="A60" s="1" t="s">
         <v>0</v>
       </c>
@@ -12947,7 +12945,7 @@
         <v>6</v>
       </c>
       <c r="H60" s="6" t="s">
-        <v>16</v>
+        <v>667</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>7</v>
@@ -12958,7 +12956,7 @@
         <v>1</v>
       </c>
       <c r="B61" s="22" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>9</v>
@@ -12966,13 +12964,13 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G61" s="15" t="s">
         <v>636</v>
       </c>
-      <c r="G61" s="15" t="s">
-        <v>637</v>
-      </c>
       <c r="H61" s="51" t="s">
-        <v>243</v>
+        <v>648</v>
       </c>
       <c r="I61" s="59"/>
     </row>
@@ -12983,11 +12981,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13002,50 +13000,50 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="62" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="103" t="s">
+        <v>654</v>
+      </c>
+      <c r="C1" s="103"/>
+      <c r="D1" s="104" t="s">
         <v>638</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>655</v>
-      </c>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100" t="s">
-        <v>639</v>
-      </c>
-      <c r="E1" s="100"/>
+      <c r="E1" s="104"/>
       <c r="F1" s="90"/>
       <c r="G1" s="80" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="62" t="s">
+        <v>639</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>657</v>
+      </c>
+      <c r="C2" s="83"/>
+      <c r="D2" s="104" t="s">
         <v>640</v>
       </c>
-      <c r="B2" s="84" t="s">
-        <v>658</v>
-      </c>
-      <c r="C2" s="83"/>
-      <c r="D2" s="100" t="s">
-        <v>641</v>
-      </c>
-      <c r="E2" s="100"/>
+      <c r="E2" s="104"/>
       <c r="F2" s="90"/>
       <c r="G2" s="80" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="63" t="s">
+        <v>641</v>
+      </c>
+      <c r="B3" s="103" t="s">
+        <v>658</v>
+      </c>
+      <c r="C3" s="103"/>
+      <c r="D3" s="104" t="s">
         <v>642</v>
       </c>
-      <c r="B3" s="99" t="s">
-        <v>659</v>
-      </c>
-      <c r="C3" s="99"/>
-      <c r="D3" s="100" t="s">
-        <v>643</v>
-      </c>
-      <c r="E3" s="100"/>
+      <c r="E3" s="104"/>
       <c r="F3" s="90"/>
       <c r="G3" s="82">
         <v>43181</v>
@@ -13053,14 +13051,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="63" t="s">
-        <v>644</v>
-      </c>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
+        <v>643</v>
+      </c>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="64"/>
@@ -13091,36 +13089,36 @@
     </row>
     <row r="8" spans="1:9" ht="33.75">
       <c r="A8" s="69" t="s">
+        <v>644</v>
+      </c>
+      <c r="B8" s="70" t="s">
         <v>645</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="C8" s="71" t="s">
         <v>646</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="D8" s="70" t="s">
         <v>647</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="E8" s="72" t="s">
         <v>648</v>
       </c>
-      <c r="E8" s="72" t="s">
+      <c r="F8" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="73" t="s">
         <v>649</v>
       </c>
-      <c r="F8" s="72" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="73" t="s">
-        <v>650</v>
-      </c>
       <c r="I8" s="81" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1">
       <c r="A9" s="98">
         <v>1</v>
       </c>
-      <c r="B9" s="102" t="s">
-        <v>660</v>
+      <c r="B9" s="99" t="s">
+        <v>659</v>
       </c>
       <c r="C9" s="85">
         <v>12</v>
@@ -13144,8 +13142,8 @@
         <f>A9+1</f>
         <v>2</v>
       </c>
-      <c r="B10" s="102" t="s">
-        <v>692</v>
+      <c r="B10" s="99" t="s">
+        <v>691</v>
       </c>
       <c r="C10" s="85">
         <v>22</v>
@@ -13169,8 +13167,8 @@
         <f t="shared" ref="A11:A23" si="1">A10+1</f>
         <v>3</v>
       </c>
-      <c r="B11" s="102" t="s">
-        <v>693</v>
+      <c r="B11" s="99" t="s">
+        <v>692</v>
       </c>
       <c r="C11" s="85">
         <v>46</v>
@@ -13194,8 +13192,8 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B12" s="103" t="s">
-        <v>694</v>
+      <c r="B12" s="100" t="s">
+        <v>693</v>
       </c>
       <c r="C12" s="86">
         <v>9</v>
@@ -13219,8 +13217,8 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="B13" s="103" t="s">
-        <v>661</v>
+      <c r="B13" s="100" t="s">
+        <v>660</v>
       </c>
       <c r="C13" s="86">
         <v>4</v>
@@ -13244,8 +13242,8 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="B14" s="104" t="s">
-        <v>662</v>
+      <c r="B14" s="101" t="s">
+        <v>661</v>
       </c>
       <c r="C14" s="86">
         <v>14</v>
@@ -13269,8 +13267,8 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="B15" s="105" t="s">
-        <v>695</v>
+      <c r="B15" s="102" t="s">
+        <v>694</v>
       </c>
       <c r="C15" s="86">
         <v>17</v>
@@ -13294,14 +13292,14 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="B16" s="105" t="s">
-        <v>696</v>
+      <c r="B16" s="102" t="s">
+        <v>695</v>
       </c>
       <c r="C16" s="86">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D16" s="85">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E16" s="85">
         <v>0</v>
@@ -13311,7 +13309,7 @@
       </c>
       <c r="G16" s="85">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1">
@@ -13319,8 +13317,8 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B17" s="105" t="s">
-        <v>697</v>
+      <c r="B17" s="102" t="s">
+        <v>696</v>
       </c>
       <c r="C17" s="86">
         <v>16</v>
@@ -13344,17 +13342,17 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B18" s="105" t="s">
-        <v>663</v>
+      <c r="B18" s="102" t="s">
+        <v>662</v>
       </c>
       <c r="C18" s="86">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D18" s="85">
         <v>0</v>
       </c>
       <c r="E18" s="85">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F18" s="85">
         <v>0</v>
@@ -13369,8 +13367,8 @@
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B19" s="105" t="s">
-        <v>664</v>
+      <c r="B19" s="102" t="s">
+        <v>663</v>
       </c>
       <c r="C19" s="86">
         <v>5</v>
@@ -13394,8 +13392,8 @@
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B20" s="105" t="s">
-        <v>665</v>
+      <c r="B20" s="102" t="s">
+        <v>664</v>
       </c>
       <c r="C20" s="86">
         <v>8</v>
@@ -13419,8 +13417,8 @@
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B21" s="105" t="s">
-        <v>666</v>
+      <c r="B21" s="102" t="s">
+        <v>665</v>
       </c>
       <c r="C21" s="86">
         <v>10</v>
@@ -13444,8 +13442,8 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B22" s="105" t="s">
-        <v>667</v>
+      <c r="B22" s="102" t="s">
+        <v>666</v>
       </c>
       <c r="C22" s="86">
         <v>4</v>
@@ -13469,17 +13467,17 @@
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B23" s="105" t="s">
-        <v>691</v>
+      <c r="B23" s="102" t="s">
+        <v>690</v>
       </c>
       <c r="C23" s="85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="85">
         <v>0</v>
       </c>
       <c r="E23" s="85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="85">
         <v>0</v>
@@ -13492,24 +13490,27 @@
     <row r="24" spans="1:7" ht="15.75" thickBot="1">
       <c r="A24" s="87"/>
       <c r="B24" s="88" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C24" s="89">
         <f>SUM(C9:C23)</f>
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D24" s="89">
-        <v>0</v>
+        <f>SUM(D9:D23)</f>
+        <v>6</v>
       </c>
       <c r="E24" s="89">
-        <v>0</v>
+        <f>SUM(E9:E23)</f>
+        <v>5</v>
       </c>
       <c r="F24" s="89">
+        <f>SUM(F9:F23)</f>
         <v>0</v>
       </c>
       <c r="G24" s="89">
         <f>SUM(G9:G23)</f>
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -13524,15 +13525,15 @@
     <row r="26" spans="1:7">
       <c r="A26" s="68"/>
       <c r="B26" s="77" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C26" s="68"/>
       <c r="D26" s="78">
         <f>(C24+D24)*100/(G24)</f>
-        <v>100</v>
+        <v>98.106060606060609</v>
       </c>
       <c r="E26" s="68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F26" s="68"/>
       <c r="G26" s="79"/>
@@ -13540,15 +13541,15 @@
     <row r="27" spans="1:7">
       <c r="A27" s="68"/>
       <c r="B27" s="77" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="78">
         <f>C24*100/(G24)</f>
-        <v>100</v>
+        <v>95.833333333333329</v>
       </c>
       <c r="E27" s="68" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F27" s="68"/>
       <c r="G27" s="79"/>
